--- a/SCBA/2016/Region3/2016_Region3.xlsx
+++ b/SCBA/2016/Region3/2016_Region3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J E N S\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thesis\thesis\SCBA\2016\Region3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E54DA71D-7782-4557-9590-1747143881EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8AA816-8311-493E-BC75-14A8B96FAA93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F3FE2CA0-A999-42AE-93A6-084926D44761}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="12" xr2:uid="{F3FE2CA0-A999-42AE-93A6-084926D44761}"/>
   </bookViews>
   <sheets>
     <sheet name="Angeles" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Muñoz" sheetId="12" r:id="rId12"/>
     <sheet name="Tarlac" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,40 +37,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>windows 7</author>
-  </authors>
-  <commentList>
-    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{FF65FC2A-8DC7-4CB9-8BB4-9CAB077C0488}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>windows 7:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-20,268,916.79</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>windows 7</author>
@@ -104,7 +70,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>windows 7</author>
@@ -380,9 +346,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
     <numFmt numFmtId="167" formatCode="_(&quot;₱&quot;* #,##0.00_);_(&quot;₱&quot;* \(#,##0.00\);_(&quot;₱&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
@@ -455,6 +421,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -576,7 +543,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -615,15 +582,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -670,43 +628,43 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,7 +673,7 @@
     <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -723,7 +681,7 @@
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -733,16 +691,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -753,12 +711,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -772,34 +724,30 @@
     <xf numFmtId="40" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -810,33 +758,43 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="20" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1162,7 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C67CDAE-4F8F-415E-8517-CB1337F3F303}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -1175,83 +1133,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -2360,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CF173F-CE23-4CB9-917D-B5702B4820B1}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,83 +2331,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -2484,10 +2442,10 @@
       <c r="D11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="64">
         <v>21810288.27</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -2496,10 +2454,10 @@
       <c r="D12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="61">
         <v>335828.75</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -2508,7 +2466,7 @@
       <c r="D13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="63">
         <v>9996788.8200000003</v>
       </c>
       <c r="F13" s="7"/>
@@ -2541,7 +2499,7 @@
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="61">
         <v>41714091.020000003</v>
       </c>
     </row>
@@ -2552,7 +2510,7 @@
       <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="61">
         <v>25390265.309999999</v>
       </c>
     </row>
@@ -2563,7 +2521,7 @@
       <c r="D18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="61">
         <v>37298155.369999997</v>
       </c>
     </row>
@@ -2595,7 +2553,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="65">
+      <c r="E21" s="61">
         <v>416439523</v>
       </c>
     </row>
@@ -2614,7 +2572,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="58">
+      <c r="E23" s="54">
         <v>0</v>
       </c>
     </row>
@@ -2625,7 +2583,7 @@
       <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="47">
         <v>0</v>
       </c>
     </row>
@@ -2636,7 +2594,7 @@
       <c r="D25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="35">
         <v>0</v>
       </c>
     </row>
@@ -2647,7 +2605,7 @@
       <c r="D26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="35">
         <v>0</v>
       </c>
     </row>
@@ -2658,7 +2616,7 @@
       <c r="D27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="61">
         <v>6897</v>
       </c>
     </row>
@@ -2678,7 +2636,7 @@
       <c r="D29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="63">
+      <c r="E29" s="59">
         <v>0</v>
       </c>
     </row>
@@ -2689,7 +2647,7 @@
       <c r="D30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="53">
         <v>0</v>
       </c>
     </row>
@@ -2700,7 +2658,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="45">
+      <c r="E31" s="42">
         <v>0</v>
       </c>
     </row>
@@ -2720,7 +2678,7 @@
       <c r="D33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="61">
         <v>31689730.469999999</v>
       </c>
     </row>
@@ -2731,7 +2689,7 @@
       <c r="D34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="50">
+      <c r="E34" s="47">
         <v>0</v>
       </c>
     </row>
@@ -2742,7 +2700,7 @@
       <c r="D35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="47">
         <v>0</v>
       </c>
     </row>
@@ -2753,7 +2711,7 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="66">
+      <c r="E36" s="62">
         <v>235249238.47999999</v>
       </c>
     </row>
@@ -2810,7 +2768,7 @@
       <c r="D42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="65">
+      <c r="E42" s="61">
         <v>105140554.68000001</v>
       </c>
       <c r="F42" s="7"/>
@@ -2822,7 +2780,7 @@
       <c r="D43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="65">
+      <c r="E43" s="61">
         <v>45010054.869999997</v>
       </c>
     </row>
@@ -2833,7 +2791,7 @@
       <c r="D44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="65">
+      <c r="E44" s="61">
         <v>5300783.74</v>
       </c>
     </row>
@@ -2853,7 +2811,7 @@
       <c r="D46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="61">
+      <c r="E46" s="57">
         <v>0</v>
       </c>
     </row>
@@ -2864,7 +2822,7 @@
       <c r="D47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="61">
+      <c r="E47" s="57">
         <v>0</v>
       </c>
     </row>
@@ -2875,7 +2833,7 @@
       <c r="D48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="61">
+      <c r="E48" s="57">
         <v>0</v>
       </c>
     </row>
@@ -2895,7 +2853,7 @@
       <c r="D50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="65">
+      <c r="E50" s="61">
         <v>26696188.98</v>
       </c>
     </row>
@@ -2906,7 +2864,7 @@
       <c r="D51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="65">
+      <c r="E51" s="61">
         <v>8767691.2799999993</v>
       </c>
     </row>
@@ -2917,7 +2875,7 @@
       <c r="D52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="65">
+      <c r="E52" s="61">
         <v>1271007.8500000001</v>
       </c>
     </row>
@@ -2937,7 +2895,7 @@
       <c r="D54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="65">
+      <c r="E54" s="61">
         <v>968059.32</v>
       </c>
     </row>
@@ -2948,7 +2906,7 @@
       <c r="D55" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="65">
+      <c r="E55" s="61">
         <v>405482.83</v>
       </c>
     </row>
@@ -2959,7 +2917,7 @@
       <c r="D56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="65">
+      <c r="E56" s="61">
         <v>24970.74</v>
       </c>
     </row>
@@ -2979,7 +2937,7 @@
       <c r="D58" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="59">
+      <c r="E58" s="55">
         <v>0</v>
       </c>
     </row>
@@ -2990,7 +2948,7 @@
       <c r="D59" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="59">
+      <c r="E59" s="55">
         <v>0</v>
       </c>
     </row>
@@ -3001,7 +2959,7 @@
       <c r="D60" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3021,7 +2979,7 @@
       <c r="D62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="65">
+      <c r="E62" s="61">
         <v>9095439.5</v>
       </c>
     </row>
@@ -3032,7 +2990,7 @@
       <c r="D63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="65">
+      <c r="E63" s="61">
         <v>13566421.17</v>
       </c>
     </row>
@@ -3043,7 +3001,7 @@
       <c r="D64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="65">
+      <c r="E64" s="61">
         <v>110075</v>
       </c>
     </row>
@@ -3063,7 +3021,7 @@
       <c r="D66" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="65">
+      <c r="E66" s="61">
         <v>49105492.109999999</v>
       </c>
     </row>
@@ -3074,7 +3032,7 @@
       <c r="D67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="65">
+      <c r="E67" s="61">
         <v>47098558.299999997</v>
       </c>
     </row>
@@ -3085,7 +3043,7 @@
       <c r="D68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="65">
+      <c r="E68" s="61">
         <v>1950016.4</v>
       </c>
     </row>
@@ -3113,7 +3071,7 @@
       <c r="D71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="50">
+      <c r="E71" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3124,7 +3082,7 @@
       <c r="D72" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="50">
+      <c r="E72" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3155,7 +3113,7 @@
       <c r="D75" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="65">
+      <c r="E75" s="61">
         <v>37472942.140000001</v>
       </c>
     </row>
@@ -3166,7 +3124,7 @@
       <c r="D76" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="61">
+      <c r="E76" s="57">
         <v>0</v>
       </c>
     </row>
@@ -3185,7 +3143,7 @@
       <c r="D78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="65">
+      <c r="E78" s="61">
         <v>18679997.640000001</v>
       </c>
       <c r="G78" s="19"/>
@@ -3197,7 +3155,7 @@
       <c r="D79" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="65">
+      <c r="E79" s="61">
         <v>4930050</v>
       </c>
       <c r="G79" s="19"/>
@@ -3209,8 +3167,8 @@
         <v>19</v>
       </c>
       <c r="D80" s="6"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
@@ -3219,7 +3177,7 @@
       <c r="D81" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="65">
+      <c r="E81" s="61">
         <v>50975094.140000001</v>
       </c>
     </row>
@@ -3230,7 +3188,7 @@
       <c r="D82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="65">
+      <c r="E82" s="61">
         <v>6423508.9000000004</v>
       </c>
     </row>
@@ -3241,7 +3199,7 @@
         <v>18</v>
       </c>
       <c r="D83" s="6"/>
-      <c r="E83" s="53">
+      <c r="E83" s="49">
         <v>0</v>
       </c>
     </row>
@@ -3252,7 +3210,7 @@
       <c r="D84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="61">
+      <c r="E84" s="57">
         <v>0</v>
       </c>
     </row>
@@ -3263,10 +3221,10 @@
       <c r="D85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="61">
-        <v>0</v>
-      </c>
-      <c r="G85" s="48"/>
+      <c r="E85" s="57">
+        <v>0</v>
+      </c>
+      <c r="G85" s="45"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
@@ -3276,7 +3234,7 @@
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="8"/>
-      <c r="G86" s="48"/>
+      <c r="G86" s="45"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
@@ -3285,10 +3243,10 @@
       <c r="D87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="65">
+      <c r="E87" s="61">
         <v>265286.24</v>
       </c>
-      <c r="G87" s="48"/>
+      <c r="G87" s="45"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
@@ -3297,10 +3255,10 @@
       <c r="D88" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="65">
+      <c r="E88" s="61">
         <v>3011531.8</v>
       </c>
-      <c r="F88" s="46"/>
+      <c r="F88" s="43"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
@@ -3309,8 +3267,8 @@
         <v>16</v>
       </c>
       <c r="D89" s="6"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
@@ -3319,10 +3277,10 @@
       <c r="D90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="58">
-        <v>0</v>
-      </c>
-      <c r="F90" s="46"/>
+      <c r="E90" s="54">
+        <v>0</v>
+      </c>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
@@ -3331,7 +3289,7 @@
       <c r="D91" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="65">
+      <c r="E91" s="61">
         <v>54993416.969999999</v>
       </c>
     </row>
@@ -3342,7 +3300,7 @@
       <c r="D92" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="65">
+      <c r="E92" s="61">
         <v>3025656.43</v>
       </c>
     </row>
@@ -3351,7 +3309,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="6"/>
-      <c r="E93" s="46">
+      <c r="E93" s="43">
         <f>SUM(E41:E92)</f>
         <v>494288281.02999991</v>
       </c>
@@ -3383,7 +3341,7 @@
       <c r="D96" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="65">
+      <c r="E96" s="61">
         <v>10633853.279999999</v>
       </c>
       <c r="F96" s="13">
@@ -3432,7 +3390,7 @@
       <c r="D100" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="65">
+      <c r="E100" s="61">
         <v>900</v>
       </c>
     </row>
@@ -3485,7 +3443,7 @@
       <c r="D106" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="65">
+      <c r="E106" s="61">
         <v>49185315.280000001</v>
       </c>
       <c r="F106" s="7"/>
@@ -3503,7 +3461,7 @@
       <c r="D108" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="65">
+      <c r="E108" s="61">
         <v>129663650.7</v>
       </c>
     </row>
@@ -3523,7 +3481,7 @@
       <c r="D110" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="65">
+      <c r="E110" s="61">
         <v>17250193.57</v>
       </c>
     </row>
@@ -3565,8 +3523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2C8D12-E9D9-48AA-81E1-A0C3AD472115}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,83 +3536,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -3689,10 +3647,10 @@
       <c r="D11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="64">
         <v>72136943.269999996</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -3701,10 +3659,10 @@
       <c r="D12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="61">
         <v>151256446.00999999</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -3713,7 +3671,7 @@
       <c r="D13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="63">
         <v>9159870.9399999995</v>
       </c>
       <c r="F13" s="7"/>
@@ -3746,7 +3704,7 @@
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="61">
         <v>71165711.549999997</v>
       </c>
     </row>
@@ -3757,7 +3715,7 @@
       <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="61">
         <v>63444501.170000002</v>
       </c>
     </row>
@@ -3768,7 +3726,7 @@
       <c r="D18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="61">
         <v>673492.18</v>
       </c>
     </row>
@@ -3800,7 +3758,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="65">
+      <c r="E21" s="61">
         <v>835184501</v>
       </c>
     </row>
@@ -3819,7 +3777,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="58">
+      <c r="E23" s="54">
         <v>0</v>
       </c>
     </row>
@@ -3830,7 +3788,7 @@
       <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3852,7 +3810,7 @@
       <c r="D26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="35">
         <v>0</v>
       </c>
     </row>
@@ -3863,7 +3821,7 @@
       <c r="D27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="61">
         <v>0</v>
       </c>
     </row>
@@ -3883,7 +3841,7 @@
       <c r="D29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="63">
+      <c r="E29" s="59">
         <v>0</v>
       </c>
     </row>
@@ -3894,7 +3852,7 @@
       <c r="D30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="53">
         <v>1982424.4</v>
       </c>
     </row>
@@ -3905,7 +3863,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="45">
+      <c r="E31" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3925,7 +3883,7 @@
       <c r="D33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="61">
         <v>0</v>
       </c>
     </row>
@@ -3936,7 +3894,7 @@
       <c r="D34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="50">
+      <c r="E34" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3947,7 +3905,7 @@
       <c r="D35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="47">
         <v>0</v>
       </c>
     </row>
@@ -3958,7 +3916,7 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="66">
+      <c r="E36" s="62">
         <v>18217393.16</v>
       </c>
     </row>
@@ -3973,7 +3931,7 @@
         <f>SUM(E14,E19,E21:E36)</f>
         <v>1223221283.6800001</v>
       </c>
-      <c r="G37" s="69"/>
+      <c r="G37" s="65"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -4016,7 +3974,7 @@
       <c r="D42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="65">
+      <c r="E42" s="61">
         <v>148639003.91</v>
       </c>
       <c r="F42" s="7"/>
@@ -4028,7 +3986,7 @@
       <c r="D43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="65">
+      <c r="E43" s="61">
         <v>257769619.09</v>
       </c>
     </row>
@@ -4039,7 +3997,7 @@
       <c r="D44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="65">
+      <c r="E44" s="61">
         <v>27288144.98</v>
       </c>
     </row>
@@ -4059,7 +4017,7 @@
       <c r="D46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="61">
+      <c r="E46" s="57">
         <v>2522202.36</v>
       </c>
     </row>
@@ -4070,7 +4028,7 @@
       <c r="D47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="61">
+      <c r="E47" s="57">
         <v>37408248.219999999</v>
       </c>
     </row>
@@ -4081,7 +4039,7 @@
       <c r="D48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="61">
+      <c r="E48" s="57">
         <v>88900</v>
       </c>
     </row>
@@ -4101,7 +4059,7 @@
       <c r="D50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="65">
+      <c r="E50" s="61">
         <v>109202061.31</v>
       </c>
     </row>
@@ -4112,7 +4070,7 @@
       <c r="D51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="65">
+      <c r="E51" s="61">
         <v>100226849.92</v>
       </c>
     </row>
@@ -4123,7 +4081,7 @@
       <c r="D52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="65">
+      <c r="E52" s="61">
         <v>458605</v>
       </c>
     </row>
@@ -4143,7 +4101,7 @@
       <c r="D54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="65">
+      <c r="E54" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4154,7 +4112,7 @@
       <c r="D55" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="65">
+      <c r="E55" s="61">
         <v>5124336.78</v>
       </c>
     </row>
@@ -4165,7 +4123,7 @@
       <c r="D56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="65">
+      <c r="E56" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4185,7 +4143,7 @@
       <c r="D58" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="59">
+      <c r="E58" s="55">
         <v>0</v>
       </c>
     </row>
@@ -4196,7 +4154,7 @@
       <c r="D59" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="59">
+      <c r="E59" s="55">
         <v>0</v>
       </c>
     </row>
@@ -4207,7 +4165,7 @@
       <c r="D60" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="47">
         <v>0</v>
       </c>
     </row>
@@ -4227,7 +4185,7 @@
       <c r="D62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="65">
+      <c r="E62" s="61">
         <v>7339389.5899999999</v>
       </c>
     </row>
@@ -4238,7 +4196,7 @@
       <c r="D63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="65">
+      <c r="E63" s="61">
         <v>27163450.66</v>
       </c>
     </row>
@@ -4249,7 +4207,7 @@
       <c r="D64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="65">
+      <c r="E64" s="61">
         <v>595050</v>
       </c>
     </row>
@@ -4269,7 +4227,7 @@
       <c r="D66" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="65">
+      <c r="E66" s="61">
         <v>43668620.280000001</v>
       </c>
     </row>
@@ -4280,7 +4238,7 @@
       <c r="D67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="65">
+      <c r="E67" s="61">
         <v>83722905.239999995</v>
       </c>
     </row>
@@ -4291,7 +4249,7 @@
       <c r="D68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="65">
+      <c r="E68" s="61">
         <v>82290262.549999997</v>
       </c>
     </row>
@@ -4319,7 +4277,7 @@
       <c r="D71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="50">
+      <c r="E71" s="47">
         <v>0</v>
       </c>
     </row>
@@ -4330,7 +4288,7 @@
       <c r="D72" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="50">
+      <c r="E72" s="47">
         <v>0</v>
       </c>
     </row>
@@ -4361,7 +4319,7 @@
       <c r="D75" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="65">
+      <c r="E75" s="61">
         <v>33256905.050000001</v>
       </c>
     </row>
@@ -4372,7 +4330,7 @@
       <c r="D76" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="61">
+      <c r="E76" s="57">
         <v>0</v>
       </c>
     </row>
@@ -4391,7 +4349,7 @@
       <c r="D78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="65">
+      <c r="E78" s="61">
         <v>33186616.890000001</v>
       </c>
       <c r="G78" s="19"/>
@@ -4403,7 +4361,7 @@
       <c r="D79" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="65">
+      <c r="E79" s="61">
         <v>27113383.109999999</v>
       </c>
       <c r="G79" s="19"/>
@@ -4415,8 +4373,8 @@
         <v>19</v>
       </c>
       <c r="D80" s="6"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
@@ -4425,7 +4383,7 @@
       <c r="D81" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="65">
+      <c r="E81" s="61">
         <v>36914301.210000001</v>
       </c>
     </row>
@@ -4436,7 +4394,7 @@
       <c r="D82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="65">
+      <c r="E82" s="61">
         <v>112589075.16</v>
       </c>
     </row>
@@ -4447,7 +4405,7 @@
         <v>18</v>
       </c>
       <c r="D83" s="6"/>
-      <c r="E83" s="53">
+      <c r="E83" s="49">
         <v>0</v>
       </c>
     </row>
@@ -4458,7 +4416,7 @@
       <c r="D84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="61">
+      <c r="E84" s="57">
         <v>18764158.66</v>
       </c>
     </row>
@@ -4469,10 +4427,10 @@
       <c r="D85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="61">
-        <v>0</v>
-      </c>
-      <c r="G85" s="48"/>
+      <c r="E85" s="57">
+        <v>0</v>
+      </c>
+      <c r="G85" s="45"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
@@ -4482,7 +4440,7 @@
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="8"/>
-      <c r="G86" s="48"/>
+      <c r="G86" s="45"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
@@ -4491,10 +4449,10 @@
       <c r="D87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="65">
+      <c r="E87" s="61">
         <v>1949282.5</v>
       </c>
-      <c r="G87" s="48"/>
+      <c r="G87" s="45"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
@@ -4503,10 +4461,10 @@
       <c r="D88" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="65">
-        <v>0</v>
-      </c>
-      <c r="F88" s="46"/>
+      <c r="E88" s="61">
+        <v>0</v>
+      </c>
+      <c r="F88" s="43"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
@@ -4515,8 +4473,8 @@
         <v>16</v>
       </c>
       <c r="D89" s="6"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
@@ -4525,10 +4483,10 @@
       <c r="D90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="58">
-        <v>0</v>
-      </c>
-      <c r="F90" s="46"/>
+      <c r="E90" s="54">
+        <v>0</v>
+      </c>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
@@ -4537,7 +4495,7 @@
       <c r="D91" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="65">
+      <c r="E91" s="61">
         <v>3245000</v>
       </c>
     </row>
@@ -4548,7 +4506,7 @@
       <c r="D92" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="65">
+      <c r="E92" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4557,7 +4515,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="6"/>
-      <c r="E93" s="46">
+      <c r="E93" s="43">
         <f>SUM(E41:E92)</f>
         <v>1200526372.47</v>
       </c>
@@ -4589,7 +4547,7 @@
       <c r="D96" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="65">
+      <c r="E96" s="61">
         <v>2291540</v>
       </c>
       <c r="F96" s="13">
@@ -4638,7 +4596,7 @@
       <c r="D100" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="65">
+      <c r="E100" s="61">
         <v>1281000</v>
       </c>
     </row>
@@ -4691,7 +4649,7 @@
       <c r="D106" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="65">
+      <c r="E106" s="61">
         <v>0</v>
       </c>
       <c r="F106" s="7"/>
@@ -4709,7 +4667,7 @@
       <c r="D108" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="65">
+      <c r="E108" s="61">
         <v>53549823.369999997</v>
       </c>
     </row>
@@ -4729,7 +4687,7 @@
       <c r="D110" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="65">
+      <c r="E110" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4771,8 +4729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A3774F-CBBC-464D-99C7-7FCEFA828594}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4784,83 +4742,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -4895,10 +4853,10 @@
       <c r="D11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="68">
         <v>13948791.880000001</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -4907,10 +4865,10 @@
       <c r="D12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="68">
         <v>18178761.850000001</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -4919,7 +4877,7 @@
       <c r="D13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="68">
         <v>2690988.19</v>
       </c>
       <c r="F13" s="7"/>
@@ -4952,7 +4910,7 @@
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="68">
         <v>4305159.87</v>
       </c>
     </row>
@@ -4963,7 +4921,7 @@
       <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="72">
+      <c r="E17" s="68">
         <v>15382907.74</v>
       </c>
     </row>
@@ -4974,7 +4932,7 @@
       <c r="D18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="68">
         <v>658634.16</v>
       </c>
     </row>
@@ -5006,7 +4964,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="72">
+      <c r="E21" s="68">
         <v>371291110</v>
       </c>
     </row>
@@ -5017,7 +4975,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="64">
+      <c r="E22" s="60">
         <v>0</v>
       </c>
     </row>
@@ -5028,7 +4986,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="58">
+      <c r="E23" s="54">
         <v>0</v>
       </c>
     </row>
@@ -5039,7 +4997,7 @@
       <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="47">
         <v>0</v>
       </c>
     </row>
@@ -5050,7 +5008,7 @@
       <c r="D25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5061,7 +5019,7 @@
       <c r="D26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="66">
         <v>1537152.7</v>
       </c>
     </row>
@@ -5072,7 +5030,7 @@
       <c r="D27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E27" s="54">
         <v>0</v>
       </c>
     </row>
@@ -5092,7 +5050,7 @@
       <c r="D29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="66">
         <v>4823342.5999999996</v>
       </c>
     </row>
@@ -5103,7 +5061,7 @@
       <c r="D30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="53">
         <v>0</v>
       </c>
     </row>
@@ -5114,7 +5072,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="45">
+      <c r="E31" s="42">
         <v>0</v>
       </c>
     </row>
@@ -5134,7 +5092,7 @@
       <c r="D33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="70">
+      <c r="E33" s="66">
         <v>24867500</v>
       </c>
     </row>
@@ -5145,7 +5103,7 @@
       <c r="D34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="50">
+      <c r="E34" s="47">
         <v>0</v>
       </c>
     </row>
@@ -5156,7 +5114,7 @@
       <c r="D35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="47">
         <v>0</v>
       </c>
     </row>
@@ -5167,7 +5125,7 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="71">
+      <c r="E36" s="67">
         <v>108699714.81</v>
       </c>
     </row>
@@ -5224,7 +5182,7 @@
       <c r="D42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="70">
+      <c r="E42" s="66">
         <v>76993706.170000002</v>
       </c>
       <c r="F42" s="7"/>
@@ -5236,7 +5194,7 @@
       <c r="D43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="70">
+      <c r="E43" s="66">
         <v>46502240.710000001</v>
       </c>
     </row>
@@ -5247,7 +5205,7 @@
       <c r="D44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="70">
+      <c r="E44" s="66">
         <v>4367008.05</v>
       </c>
     </row>
@@ -5267,7 +5225,7 @@
       <c r="D46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="61">
+      <c r="E46" s="57">
         <v>0</v>
       </c>
     </row>
@@ -5278,7 +5236,7 @@
       <c r="D47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="61">
+      <c r="E47" s="57">
         <v>0</v>
       </c>
     </row>
@@ -5289,7 +5247,7 @@
       <c r="D48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="61">
+      <c r="E48" s="57">
         <v>0</v>
       </c>
     </row>
@@ -5309,7 +5267,7 @@
       <c r="D50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="70">
+      <c r="E50" s="66">
         <v>27161862.859999999</v>
       </c>
     </row>
@@ -5320,7 +5278,7 @@
       <c r="D51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="70">
+      <c r="E51" s="66">
         <v>937895.03</v>
       </c>
     </row>
@@ -5331,7 +5289,7 @@
       <c r="D52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="61">
+      <c r="E52" s="57">
         <v>0</v>
       </c>
     </row>
@@ -5351,7 +5309,7 @@
       <c r="D54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="70">
+      <c r="E54" s="66">
         <v>947692.08</v>
       </c>
     </row>
@@ -5362,7 +5320,7 @@
       <c r="D55" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="58">
+      <c r="E55" s="54">
         <v>0</v>
       </c>
     </row>
@@ -5393,7 +5351,7 @@
       <c r="D58" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="59">
+      <c r="E58" s="55">
         <v>0</v>
       </c>
     </row>
@@ -5404,7 +5362,7 @@
       <c r="D59" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="59">
+      <c r="E59" s="55">
         <v>0</v>
       </c>
     </row>
@@ -5415,7 +5373,7 @@
       <c r="D60" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="47">
         <v>0</v>
       </c>
     </row>
@@ -5435,7 +5393,7 @@
       <c r="D62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="70">
+      <c r="E62" s="66">
         <v>6729221.96</v>
       </c>
     </row>
@@ -5446,7 +5404,7 @@
       <c r="D63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="70">
+      <c r="E63" s="66">
         <v>5317572</v>
       </c>
     </row>
@@ -5457,7 +5415,7 @@
       <c r="D64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="61">
+      <c r="E64" s="57">
         <v>0</v>
       </c>
     </row>
@@ -5477,7 +5435,7 @@
       <c r="D66" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="70">
+      <c r="E66" s="66">
         <v>44839000.020000003</v>
       </c>
     </row>
@@ -5488,7 +5446,7 @@
       <c r="D67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="70">
+      <c r="E67" s="66">
         <v>5101715.76</v>
       </c>
     </row>
@@ -5499,7 +5457,7 @@
       <c r="D68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="70">
+      <c r="E68" s="66">
         <v>35340627.780000001</v>
       </c>
     </row>
@@ -5527,7 +5485,7 @@
       <c r="D71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="50">
+      <c r="E71" s="47">
         <v>0</v>
       </c>
     </row>
@@ -5538,7 +5496,7 @@
       <c r="D72" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="50">
+      <c r="E72" s="47">
         <v>0</v>
       </c>
     </row>
@@ -5569,7 +5527,7 @@
       <c r="D75" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="70">
+      <c r="E75" s="66">
         <v>24273357.829999998</v>
       </c>
     </row>
@@ -5580,7 +5538,7 @@
       <c r="D76" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="70">
+      <c r="E76" s="66">
         <v>20022002.73</v>
       </c>
     </row>
@@ -5599,7 +5557,7 @@
       <c r="D78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="61">
+      <c r="E78" s="57">
         <v>0</v>
       </c>
       <c r="G78" s="19"/>
@@ -5611,7 +5569,7 @@
       <c r="D79" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="70">
+      <c r="E79" s="66">
         <v>21228205.399999999</v>
       </c>
       <c r="G79" s="19"/>
@@ -5623,8 +5581,8 @@
         <v>19</v>
       </c>
       <c r="D80" s="6"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
@@ -5641,7 +5599,7 @@
       <c r="D82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="70">
+      <c r="E82" s="66">
         <v>40504760.490000002</v>
       </c>
     </row>
@@ -5652,7 +5610,7 @@
         <v>18</v>
       </c>
       <c r="D83" s="6"/>
-      <c r="E83" s="53"/>
+      <c r="E83" s="49"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
@@ -5661,7 +5619,7 @@
       <c r="D84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="61">
+      <c r="E84" s="57">
         <v>0</v>
       </c>
     </row>
@@ -5672,10 +5630,10 @@
       <c r="D85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="61">
-        <v>0</v>
-      </c>
-      <c r="G85" s="48"/>
+      <c r="E85" s="57">
+        <v>0</v>
+      </c>
+      <c r="G85" s="45"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
@@ -5685,7 +5643,7 @@
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="8"/>
-      <c r="G86" s="48"/>
+      <c r="G86" s="45"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
@@ -5694,10 +5652,10 @@
       <c r="D87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="70">
+      <c r="E87" s="66">
         <v>3950299</v>
       </c>
-      <c r="G87" s="48"/>
+      <c r="G87" s="45"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
@@ -5709,7 +5667,7 @@
       <c r="E88">
         <v>0</v>
       </c>
-      <c r="F88" s="46"/>
+      <c r="F88" s="43"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
@@ -5718,8 +5676,8 @@
         <v>16</v>
       </c>
       <c r="D89" s="6"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
@@ -5728,10 +5686,10 @@
       <c r="D90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="70">
+      <c r="E90" s="66">
         <v>12784629.75</v>
       </c>
-      <c r="F90" s="46"/>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
@@ -5740,7 +5698,7 @@
       <c r="D91" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="70">
+      <c r="E91" s="66">
         <v>4225720.3499999996</v>
       </c>
     </row>
@@ -5751,7 +5709,7 @@
       <c r="D92" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="70">
+      <c r="E92" s="66">
         <v>1429017.26</v>
       </c>
     </row>
@@ -5760,7 +5718,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="6"/>
-      <c r="E93" s="46">
+      <c r="E93" s="43">
         <f>SUM(E41:E92)</f>
         <v>382656535.23000002</v>
       </c>
@@ -5792,7 +5750,7 @@
       <c r="D96" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="46">
+      <c r="E96" s="43">
         <v>0</v>
       </c>
       <c r="F96" s="13">
@@ -5841,7 +5799,7 @@
       <c r="D100" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="45">
+      <c r="E100" s="42">
         <v>0</v>
       </c>
     </row>
@@ -5894,7 +5852,7 @@
       <c r="D106" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="45">
+      <c r="E106" s="42">
         <v>0</v>
       </c>
       <c r="F106" s="7"/>
@@ -5912,7 +5870,7 @@
       <c r="D108" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="70">
+      <c r="E108" s="66">
         <v>9901266.3000000007</v>
       </c>
     </row>
@@ -5932,7 +5890,7 @@
       <c r="D110" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="58">
+      <c r="E110" s="54">
         <v>0</v>
       </c>
     </row>
@@ -5974,8 +5932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE176711-E54D-4CCC-88B6-13AA8247E6C7}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5987,83 +5945,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -6098,10 +6056,10 @@
       <c r="D11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="69">
         <v>91932138.24000001</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -6110,10 +6068,10 @@
       <c r="D12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="69">
         <v>227773638.97</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -6122,7 +6080,7 @@
       <c r="D13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="69">
         <v>13320696.560000001</v>
       </c>
       <c r="F13" s="7"/>
@@ -6155,7 +6113,7 @@
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="69">
         <v>42052463.219999999</v>
       </c>
     </row>
@@ -6166,7 +6124,7 @@
       <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="73">
+      <c r="E17" s="69">
         <v>38242551.090000004</v>
       </c>
     </row>
@@ -6177,7 +6135,7 @@
       <c r="D18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="68">
         <v>0</v>
       </c>
     </row>
@@ -6209,7 +6167,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="73">
+      <c r="E21" s="69">
         <v>762153649</v>
       </c>
     </row>
@@ -6220,7 +6178,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="64">
+      <c r="E22" s="60">
         <v>0</v>
       </c>
     </row>
@@ -6231,7 +6189,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="58">
+      <c r="E23" s="54">
         <v>0</v>
       </c>
     </row>
@@ -6242,7 +6200,7 @@
       <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="73">
+      <c r="E24" s="69">
         <v>52209197.229999997</v>
       </c>
     </row>
@@ -6253,7 +6211,7 @@
       <c r="D25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="35">
         <v>0</v>
       </c>
     </row>
@@ -6264,7 +6222,7 @@
       <c r="D26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="73">
+      <c r="E26" s="69">
         <v>3164240.97</v>
       </c>
     </row>
@@ -6275,7 +6233,7 @@
       <c r="D27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="73">
+      <c r="E27" s="69">
         <v>14360</v>
       </c>
     </row>
@@ -6295,7 +6253,7 @@
       <c r="D29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="66">
         <v>0</v>
       </c>
     </row>
@@ -6306,7 +6264,7 @@
       <c r="D30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="73">
+      <c r="E30" s="69">
         <v>3231445.13</v>
       </c>
     </row>
@@ -6317,7 +6275,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="45">
+      <c r="E31" s="42">
         <v>0</v>
       </c>
     </row>
@@ -6337,7 +6295,7 @@
       <c r="D33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="70">
+      <c r="E33" s="66">
         <v>0</v>
       </c>
     </row>
@@ -6348,7 +6306,7 @@
       <c r="D34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="50">
+      <c r="E34" s="47">
         <v>0</v>
       </c>
     </row>
@@ -6359,7 +6317,7 @@
       <c r="D35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="47">
         <v>0</v>
       </c>
     </row>
@@ -6370,7 +6328,7 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="71">
+      <c r="E36" s="67">
         <v>0</v>
       </c>
     </row>
@@ -6427,7 +6385,7 @@
       <c r="D42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="73">
+      <c r="E42" s="69">
         <v>189831745.13</v>
       </c>
       <c r="F42" s="7"/>
@@ -6439,7 +6397,7 @@
       <c r="D43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="73">
+      <c r="E43" s="69">
         <v>190809096.27000001</v>
       </c>
     </row>
@@ -6450,7 +6408,7 @@
       <c r="D44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="73">
+      <c r="E44" s="69">
         <v>110133209.79000001</v>
       </c>
     </row>
@@ -6470,7 +6428,7 @@
       <c r="D46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="61">
+      <c r="E46" s="57">
         <v>0</v>
       </c>
     </row>
@@ -6481,7 +6439,7 @@
       <c r="D47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="61">
+      <c r="E47" s="57">
         <v>0</v>
       </c>
     </row>
@@ -6492,7 +6450,7 @@
       <c r="D48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="61">
+      <c r="E48" s="57">
         <v>0</v>
       </c>
     </row>
@@ -6512,7 +6470,7 @@
       <c r="D50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="73">
+      <c r="E50" s="69">
         <v>56774569.109999999</v>
       </c>
     </row>
@@ -6523,7 +6481,7 @@
       <c r="D51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="73">
+      <c r="E51" s="69">
         <v>6919690.5800000001</v>
       </c>
     </row>
@@ -6534,7 +6492,7 @@
       <c r="D52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="73">
+      <c r="E52" s="69">
         <v>75000</v>
       </c>
     </row>
@@ -6554,7 +6512,7 @@
       <c r="D54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="70">
+      <c r="E54" s="66">
         <v>0</v>
       </c>
     </row>
@@ -6565,7 +6523,7 @@
       <c r="D55" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="58">
+      <c r="E55" s="54">
         <v>0</v>
       </c>
     </row>
@@ -6596,7 +6554,7 @@
       <c r="D58" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="59">
+      <c r="E58" s="55">
         <v>0</v>
       </c>
     </row>
@@ -6607,7 +6565,7 @@
       <c r="D59" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="73">
+      <c r="E59" s="69">
         <v>60666681.039999999</v>
       </c>
     </row>
@@ -6618,7 +6576,7 @@
       <c r="D60" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="73">
+      <c r="E60" s="69">
         <v>76144167.079999998</v>
       </c>
     </row>
@@ -6638,7 +6596,7 @@
       <c r="D62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="73">
+      <c r="E62" s="69">
         <v>14741888.92</v>
       </c>
     </row>
@@ -6649,7 +6607,7 @@
       <c r="D63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="73">
+      <c r="E63" s="69">
         <v>6820205.6500000004</v>
       </c>
     </row>
@@ -6660,7 +6618,7 @@
       <c r="D64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="73">
+      <c r="E64" s="69">
         <v>502500</v>
       </c>
     </row>
@@ -6680,7 +6638,7 @@
       <c r="D66" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="73">
+      <c r="E66" s="69">
         <v>79857744.480000004</v>
       </c>
     </row>
@@ -6691,7 +6649,7 @@
       <c r="D67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="73">
+      <c r="E67" s="69">
         <v>58984402.439999998</v>
       </c>
     </row>
@@ -6702,7 +6660,7 @@
       <c r="D68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="73">
+      <c r="E68" s="69">
         <v>454940</v>
       </c>
     </row>
@@ -6730,7 +6688,7 @@
       <c r="D71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="50">
+      <c r="E71" s="47">
         <v>0</v>
       </c>
     </row>
@@ -6741,7 +6699,7 @@
       <c r="D72" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="50">
+      <c r="E72" s="47">
         <v>0</v>
       </c>
     </row>
@@ -6772,7 +6730,7 @@
       <c r="D75" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="73">
+      <c r="E75" s="69">
         <v>111119640.66</v>
       </c>
     </row>
@@ -6783,7 +6741,7 @@
       <c r="D76" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="73">
+      <c r="E76" s="69">
         <v>42304067.740000002</v>
       </c>
     </row>
@@ -6802,7 +6760,7 @@
       <c r="D78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="73">
+      <c r="E78" s="69">
         <v>4351136</v>
       </c>
       <c r="G78" s="19"/>
@@ -6814,7 +6772,7 @@
       <c r="D79" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="73">
+      <c r="E79" s="69">
         <v>27427339.379999999</v>
       </c>
       <c r="G79" s="19"/>
@@ -6826,8 +6784,8 @@
         <v>19</v>
       </c>
       <c r="D80" s="6"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
@@ -6844,7 +6802,7 @@
       <c r="D82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="70">
+      <c r="E82" s="66">
         <v>0</v>
       </c>
     </row>
@@ -6855,7 +6813,7 @@
         <v>18</v>
       </c>
       <c r="D83" s="6"/>
-      <c r="E83" s="53"/>
+      <c r="E83" s="49"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
@@ -6864,7 +6822,7 @@
       <c r="D84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="61">
+      <c r="E84" s="57">
         <v>0</v>
       </c>
     </row>
@@ -6875,10 +6833,10 @@
       <c r="D85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="61">
-        <v>0</v>
-      </c>
-      <c r="G85" s="48"/>
+      <c r="E85" s="57">
+        <v>0</v>
+      </c>
+      <c r="G85" s="45"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
@@ -6888,7 +6846,7 @@
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="8"/>
-      <c r="G86" s="48"/>
+      <c r="G86" s="45"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
@@ -6897,10 +6855,10 @@
       <c r="D87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="73">
+      <c r="E87" s="69">
         <v>3222659.64</v>
       </c>
-      <c r="G87" s="48"/>
+      <c r="G87" s="45"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
@@ -6909,10 +6867,10 @@
       <c r="D88" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="73">
+      <c r="E88" s="69">
         <v>1076920</v>
       </c>
-      <c r="F88" s="46"/>
+      <c r="F88" s="43"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
@@ -6921,8 +6879,8 @@
         <v>16</v>
       </c>
       <c r="D89" s="6"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
@@ -6931,10 +6889,10 @@
       <c r="D90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="73">
+      <c r="E90" s="69">
         <v>13418587.359999999</v>
       </c>
-      <c r="F90" s="46"/>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
@@ -6943,7 +6901,7 @@
       <c r="D91" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="73">
+      <c r="E91" s="69">
         <v>22157064.82</v>
       </c>
     </row>
@@ -6954,7 +6912,7 @@
       <c r="D92" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="70">
+      <c r="E92" s="66">
         <v>0</v>
       </c>
     </row>
@@ -6963,7 +6921,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="6"/>
-      <c r="E93" s="46">
+      <c r="E93" s="43">
         <f>SUM(E41:E92)</f>
         <v>1077793256.0899999</v>
       </c>
@@ -6995,7 +6953,7 @@
       <c r="D96" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="46">
+      <c r="E96" s="43">
         <v>0</v>
       </c>
       <c r="F96" s="13">
@@ -7044,7 +7002,7 @@
       <c r="D100" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="45">
+      <c r="E100" s="42">
         <v>0</v>
       </c>
     </row>
@@ -7097,7 +7055,7 @@
       <c r="D106" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="45">
+      <c r="E106" s="42">
         <v>0</v>
       </c>
       <c r="F106" s="7"/>
@@ -7115,7 +7073,7 @@
       <c r="D108" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="70">
+      <c r="E108" s="66">
         <v>0</v>
       </c>
     </row>
@@ -7135,7 +7093,7 @@
       <c r="D110" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="58">
+      <c r="E110" s="54">
         <v>0</v>
       </c>
     </row>
@@ -7190,83 +7148,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -7301,10 +7259,10 @@
       <c r="D11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="36">
         <v>34148538.109999999</v>
       </c>
-      <c r="F11" s="39"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -7313,10 +7271,10 @@
       <c r="D12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="36">
         <v>80175831.400000006</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -7358,7 +7316,7 @@
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="36">
         <v>23810763.129999999</v>
       </c>
     </row>
@@ -7369,7 +7327,7 @@
       <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="36">
         <v>59011814.93</v>
       </c>
     </row>
@@ -7412,7 +7370,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="39">
+      <c r="E21" s="36">
         <v>354360542</v>
       </c>
     </row>
@@ -7443,7 +7401,7 @@
       <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="36">
         <v>1860718.66</v>
       </c>
     </row>
@@ -7454,7 +7412,7 @@
       <c r="D25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="36">
         <v>36273.42</v>
       </c>
     </row>
@@ -7465,7 +7423,7 @@
       <c r="D26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="36">
         <v>6265371.8499999996</v>
       </c>
     </row>
@@ -7628,7 +7586,7 @@
       <c r="D42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="39">
+      <c r="E42" s="36">
         <v>97147610.780000001</v>
       </c>
       <c r="F42" s="7"/>
@@ -7640,7 +7598,7 @@
       <c r="D43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="39">
+      <c r="E43" s="36">
         <v>176060536.06</v>
       </c>
     </row>
@@ -7651,7 +7609,7 @@
       <c r="D44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="36">
         <v>8383155.2000000002</v>
       </c>
     </row>
@@ -7671,7 +7629,7 @@
       <c r="D46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="39">
+      <c r="E46" s="36">
         <v>309464.7</v>
       </c>
     </row>
@@ -7682,7 +7640,7 @@
       <c r="D47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E47" s="36">
         <v>131177.95000000001</v>
       </c>
     </row>
@@ -7713,7 +7671,7 @@
       <c r="D50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="39">
+      <c r="E50" s="36">
         <v>23946212.190000001</v>
       </c>
     </row>
@@ -7724,7 +7682,7 @@
       <c r="D51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="39">
+      <c r="E51" s="36">
         <v>4064199.01</v>
       </c>
     </row>
@@ -7735,7 +7693,7 @@
       <c r="D52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="39">
+      <c r="E52" s="36">
         <v>393000</v>
       </c>
     </row>
@@ -7839,7 +7797,7 @@
       <c r="D62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="39">
+      <c r="E62" s="36">
         <v>7720112.9800000004</v>
       </c>
     </row>
@@ -7850,7 +7808,7 @@
       <c r="D63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="39">
+      <c r="E63" s="36">
         <v>989495.31</v>
       </c>
     </row>
@@ -7881,7 +7839,7 @@
       <c r="D66" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="38">
+      <c r="E66" s="35">
         <v>17281845.600000001</v>
       </c>
     </row>
@@ -7892,7 +7850,7 @@
       <c r="D67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="38">
+      <c r="E67" s="35">
         <v>11505446.949999999</v>
       </c>
     </row>
@@ -7903,7 +7861,7 @@
       <c r="D68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="38">
+      <c r="E68" s="35">
         <v>282000</v>
       </c>
     </row>
@@ -7934,7 +7892,7 @@
       <c r="D71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="38">
+      <c r="E71" s="35">
         <v>33593756.409999996</v>
       </c>
     </row>
@@ -8000,7 +7958,7 @@
       <c r="D78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="38">
+      <c r="E78" s="35">
         <v>1938076.6</v>
       </c>
       <c r="G78" s="19"/>
@@ -8012,7 +7970,7 @@
       <c r="D79" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="38">
+      <c r="E79" s="35">
         <v>15871692.75</v>
       </c>
       <c r="G79" s="19"/>
@@ -8024,8 +7982,8 @@
         <v>19</v>
       </c>
       <c r="D80" s="6"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
@@ -8034,7 +7992,7 @@
       <c r="D81" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="38">
+      <c r="E81" s="35">
         <v>5309133.4000000004</v>
       </c>
     </row>
@@ -8045,7 +8003,7 @@
       <c r="D82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="38">
+      <c r="E82" s="35">
         <v>49061112.729999997</v>
       </c>
     </row>
@@ -8065,7 +8023,7 @@
       <c r="D84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="38">
+      <c r="E84" s="35">
         <v>0</v>
       </c>
     </row>
@@ -8076,7 +8034,7 @@
       <c r="D85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="38">
+      <c r="E85" s="35">
         <v>0</v>
       </c>
     </row>
@@ -8386,83 +8344,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -8497,10 +8455,10 @@
       <c r="D11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="38">
         <v>140691258.5</v>
       </c>
-      <c r="F11" s="39"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -8509,10 +8467,10 @@
       <c r="D12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="37">
         <v>231340962.08999997</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -8521,7 +8479,7 @@
       <c r="D13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="37">
         <v>6850221.8099999996</v>
       </c>
       <c r="F13" s="7"/>
@@ -8554,7 +8512,7 @@
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="37">
         <v>41023886.909999996</v>
       </c>
     </row>
@@ -8565,7 +8523,7 @@
       <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="37">
         <v>36632720.07</v>
       </c>
     </row>
@@ -8576,7 +8534,7 @@
       <c r="D18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="37">
         <v>48895.839999999997</v>
       </c>
     </row>
@@ -8608,7 +8566,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="40">
+      <c r="E21" s="37">
         <v>708377861</v>
       </c>
     </row>
@@ -8619,7 +8577,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="40">
+      <c r="E22" s="37">
         <v>4700412.33</v>
       </c>
     </row>
@@ -8639,7 +8597,7 @@
       <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="36">
         <v>0</v>
       </c>
     </row>
@@ -8650,7 +8608,7 @@
       <c r="D25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="36">
         <v>0</v>
       </c>
     </row>
@@ -8661,7 +8619,7 @@
       <c r="D26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="36">
         <v>0</v>
       </c>
     </row>
@@ -8714,7 +8672,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="40">
+      <c r="E31" s="37">
         <v>9799939.9499999993</v>
       </c>
     </row>
@@ -8824,7 +8782,7 @@
       <c r="D42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="40">
+      <c r="E42" s="37">
         <v>187129768.38999999</v>
       </c>
       <c r="F42" s="7"/>
@@ -8836,7 +8794,7 @@
       <c r="D43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="40">
+      <c r="E43" s="37">
         <v>109049383.89</v>
       </c>
     </row>
@@ -8847,7 +8805,7 @@
       <c r="D44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E44" s="37">
         <v>9983828.9100000001</v>
       </c>
     </row>
@@ -8867,7 +8825,7 @@
       <c r="D46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="40">
+      <c r="E46" s="37">
         <v>882858.78</v>
       </c>
     </row>
@@ -8878,7 +8836,7 @@
       <c r="D47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E47" s="36">
         <v>0</v>
       </c>
     </row>
@@ -8909,7 +8867,7 @@
       <c r="D50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="40">
+      <c r="E50" s="37">
         <v>98889238.439999998</v>
       </c>
     </row>
@@ -8920,7 +8878,7 @@
       <c r="D51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E51" s="37">
         <v>63504325.850000001</v>
       </c>
     </row>
@@ -8931,7 +8889,7 @@
       <c r="D52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="37">
         <v>3742810</v>
       </c>
     </row>
@@ -9035,7 +8993,7 @@
       <c r="D62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="40">
+      <c r="E62" s="37">
         <v>11251604.24</v>
       </c>
     </row>
@@ -9046,7 +9004,7 @@
       <c r="D63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="40">
+      <c r="E63" s="37">
         <v>40114510.060000002</v>
       </c>
     </row>
@@ -9057,7 +9015,7 @@
       <c r="D64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="40">
+      <c r="E64" s="37">
         <v>9114712</v>
       </c>
     </row>
@@ -9077,7 +9035,7 @@
       <c r="D66" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="40">
+      <c r="E66" s="37">
         <v>50563842</v>
       </c>
     </row>
@@ -9088,7 +9046,7 @@
       <c r="D67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="40">
+      <c r="E67" s="37">
         <v>70985098.200000003</v>
       </c>
     </row>
@@ -9099,7 +9057,7 @@
       <c r="D68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="40">
+      <c r="E68" s="37">
         <v>92921450</v>
       </c>
     </row>
@@ -9130,7 +9088,7 @@
       <c r="D71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="38">
+      <c r="E71" s="35">
         <v>0</v>
       </c>
     </row>
@@ -9172,7 +9130,7 @@
       <c r="D75" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="40">
+      <c r="E75" s="37">
         <v>27991898.780000001</v>
       </c>
     </row>
@@ -9183,7 +9141,7 @@
       <c r="D76" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="40">
+      <c r="E76" s="37">
         <v>94381449.010000005</v>
       </c>
     </row>
@@ -9202,7 +9160,7 @@
       <c r="D78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="37">
         <v>48682098</v>
       </c>
       <c r="G78" s="19"/>
@@ -9214,7 +9172,7 @@
       <c r="D79" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="40">
+      <c r="E79" s="37">
         <v>6940995</v>
       </c>
       <c r="G79" s="19"/>
@@ -9226,8 +9184,8 @@
         <v>19</v>
       </c>
       <c r="D80" s="6"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
@@ -9236,7 +9194,7 @@
       <c r="D81" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="40">
+      <c r="E81" s="37">
         <v>49879471.460000001</v>
       </c>
     </row>
@@ -9247,7 +9205,7 @@
       <c r="D82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="40">
+      <c r="E82" s="37">
         <v>34446085.710000001</v>
       </c>
     </row>
@@ -9267,7 +9225,7 @@
       <c r="D84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="38">
+      <c r="E84" s="35">
         <v>0</v>
       </c>
     </row>
@@ -9278,7 +9236,7 @@
       <c r="D85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="38">
+      <c r="E85" s="35">
         <v>0</v>
       </c>
     </row>
@@ -9298,7 +9256,7 @@
       <c r="D87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="40">
+      <c r="E87" s="37">
         <v>3322613.25</v>
       </c>
     </row>
@@ -9309,7 +9267,7 @@
       <c r="D88" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="40">
+      <c r="E88" s="37">
         <v>690150</v>
       </c>
       <c r="F88" s="7"/>
@@ -9341,7 +9299,7 @@
       <c r="D91" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="40">
+      <c r="E91" s="37">
         <v>23641590.719999999</v>
       </c>
     </row>
@@ -9393,7 +9351,7 @@
       <c r="D96" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="40">
+      <c r="E96" s="37">
         <v>685103.04</v>
       </c>
       <c r="F96" s="13">
@@ -9442,7 +9400,7 @@
       <c r="D100" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="40">
+      <c r="E100" s="37">
         <v>451500</v>
       </c>
     </row>
@@ -9495,7 +9453,7 @@
       <c r="D106" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="40">
+      <c r="E106" s="37">
         <v>2676624.54</v>
       </c>
       <c r="F106" s="7"/>
@@ -9513,7 +9471,7 @@
       <c r="D108" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="40">
+      <c r="E108" s="37">
         <v>421691470.02999997</v>
       </c>
     </row>
@@ -9533,7 +9491,7 @@
       <c r="D110" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="40">
+      <c r="E110" s="37">
         <v>31133882.840000004</v>
       </c>
     </row>
@@ -9588,83 +9546,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -9699,10 +9657,10 @@
       <c r="D11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="41">
         <v>4867147.6799999988</v>
       </c>
-      <c r="F11" s="39"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -9711,10 +9669,10 @@
       <c r="D12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="41">
         <v>35197646.849999994</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -9723,7 +9681,7 @@
       <c r="D13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="41">
         <v>2503674.7600000002</v>
       </c>
       <c r="F13" s="7"/>
@@ -9756,7 +9714,7 @@
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="41">
         <v>9729010.5299999993</v>
       </c>
     </row>
@@ -9767,7 +9725,7 @@
       <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="41">
         <v>21832134.73</v>
       </c>
     </row>
@@ -9778,7 +9736,7 @@
       <c r="D18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="41">
         <v>304224.82</v>
       </c>
     </row>
@@ -9810,7 +9768,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="44">
+      <c r="E21" s="41">
         <v>405849564</v>
       </c>
     </row>
@@ -9821,7 +9779,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="44">
+      <c r="E22" s="41">
         <v>2329714.81</v>
       </c>
     </row>
@@ -9841,7 +9799,7 @@
       <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="36">
         <v>0</v>
       </c>
     </row>
@@ -9852,7 +9810,7 @@
       <c r="D25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="36">
         <v>0</v>
       </c>
     </row>
@@ -9863,7 +9821,7 @@
       <c r="D26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="36">
         <v>0</v>
       </c>
     </row>
@@ -9916,7 +9874,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="40">
+      <c r="E31" s="37">
         <v>0</v>
       </c>
     </row>
@@ -10026,7 +9984,7 @@
       <c r="D42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="39">
         <v>88093356.472000003</v>
       </c>
       <c r="F42" s="7"/>
@@ -10038,7 +9996,7 @@
       <c r="D43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="42">
+      <c r="E43" s="39">
         <v>70106730.170000002</v>
       </c>
     </row>
@@ -10049,7 +10007,7 @@
       <c r="D44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="39">
         <v>5817204.5999999996</v>
       </c>
     </row>
@@ -10069,7 +10027,7 @@
       <c r="D46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="39">
         <v>5480850.8600000003</v>
       </c>
     </row>
@@ -10080,7 +10038,7 @@
       <c r="D47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="42">
+      <c r="E47" s="39">
         <v>14298656.57</v>
       </c>
     </row>
@@ -10091,7 +10049,7 @@
       <c r="D48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="39">
         <v>47500</v>
       </c>
     </row>
@@ -10111,7 +10069,7 @@
       <c r="D50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="42">
+      <c r="E50" s="39">
         <v>16605661.68</v>
       </c>
     </row>
@@ -10122,7 +10080,7 @@
       <c r="D51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="42">
+      <c r="E51" s="39">
         <v>3638986.17</v>
       </c>
     </row>
@@ -10133,7 +10091,7 @@
       <c r="D52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E52" s="39">
         <v>102093.79</v>
       </c>
     </row>
@@ -10237,7 +10195,7 @@
       <c r="D62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="42">
+      <c r="E62" s="39">
         <v>4450071.93</v>
       </c>
     </row>
@@ -10248,7 +10206,7 @@
       <c r="D63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="42">
+      <c r="E63" s="39">
         <v>9702293.5499999989</v>
       </c>
     </row>
@@ -10259,7 +10217,7 @@
       <c r="D64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="42">
+      <c r="E64" s="39">
         <v>35923.47</v>
       </c>
     </row>
@@ -10279,7 +10237,7 @@
       <c r="D66" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="39">
         <v>23803197.290000003</v>
       </c>
     </row>
@@ -10290,7 +10248,7 @@
       <c r="D67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="42">
+      <c r="E67" s="39">
         <v>67735808.169999987</v>
       </c>
     </row>
@@ -10301,7 +10259,7 @@
       <c r="D68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="42">
+      <c r="E68" s="39">
         <v>1999999.01</v>
       </c>
     </row>
@@ -10332,7 +10290,7 @@
       <c r="D71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="38">
+      <c r="E71" s="35">
         <v>0</v>
       </c>
     </row>
@@ -10343,7 +10301,7 @@
       <c r="D72" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="43">
+      <c r="E72" s="40">
         <v>14192919.050000001</v>
       </c>
     </row>
@@ -10374,7 +10332,7 @@
       <c r="D75" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="42">
+      <c r="E75" s="39">
         <v>17422934.909999996</v>
       </c>
     </row>
@@ -10385,7 +10343,7 @@
       <c r="D76" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="42">
+      <c r="E76" s="39">
         <v>40430017.319999993</v>
       </c>
     </row>
@@ -10404,7 +10362,7 @@
       <c r="D78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="42">
+      <c r="E78" s="39">
         <v>9711141.8600000013</v>
       </c>
       <c r="G78" s="19"/>
@@ -10416,7 +10374,7 @@
       <c r="D79" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="42">
+      <c r="E79" s="39">
         <v>0</v>
       </c>
       <c r="G79" s="19"/>
@@ -10428,8 +10386,8 @@
         <v>19</v>
       </c>
       <c r="D80" s="6"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
@@ -10438,7 +10396,7 @@
       <c r="D81" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="42">
+      <c r="E81" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10449,7 +10407,7 @@
       <c r="D82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="42">
+      <c r="E82" s="39">
         <v>31350045.780000001</v>
       </c>
     </row>
@@ -10469,7 +10427,7 @@
       <c r="D84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="38">
+      <c r="E84" s="35">
         <v>0</v>
       </c>
     </row>
@@ -10480,7 +10438,7 @@
       <c r="D85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="38">
+      <c r="E85" s="35">
         <v>0</v>
       </c>
     </row>
@@ -10500,7 +10458,7 @@
       <c r="D87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="40">
+      <c r="E87" s="37">
         <v>0</v>
       </c>
     </row>
@@ -10511,7 +10469,7 @@
       <c r="D88" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="40">
+      <c r="E88" s="37">
         <v>0</v>
       </c>
       <c r="F88" s="7"/>
@@ -10543,7 +10501,7 @@
       <c r="D91" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="42">
+      <c r="E91" s="39">
         <v>249000</v>
       </c>
     </row>
@@ -10554,7 +10512,7 @@
       <c r="D92" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="42">
+      <c r="E92" s="39">
         <v>2937860</v>
       </c>
     </row>
@@ -10595,7 +10553,7 @@
       <c r="D96" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="40">
+      <c r="E96" s="37">
         <v>0</v>
       </c>
       <c r="F96" s="13">
@@ -10644,7 +10602,7 @@
       <c r="D100" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="40">
+      <c r="E100" s="37">
         <v>0</v>
       </c>
     </row>
@@ -10697,7 +10655,7 @@
       <c r="D106" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="40">
+      <c r="E106" s="37">
         <v>0</v>
       </c>
       <c r="F106" s="7"/>
@@ -10715,7 +10673,7 @@
       <c r="D108" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="40">
+      <c r="E108" s="37">
         <v>0</v>
       </c>
     </row>
@@ -10735,7 +10693,7 @@
       <c r="D110" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="40">
+      <c r="E110" s="37">
         <v>0</v>
       </c>
     </row>
@@ -10790,83 +10748,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -10901,10 +10859,10 @@
       <c r="D11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="46">
         <v>28247795.370000001</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -10913,10 +10871,10 @@
       <c r="D12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="43">
         <v>79625342.180000007</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -10925,7 +10883,7 @@
       <c r="D13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="43">
         <v>5350296.33</v>
       </c>
       <c r="F13" s="7"/>
@@ -10958,7 +10916,7 @@
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="43">
         <v>14698233</v>
       </c>
     </row>
@@ -10969,7 +10927,7 @@
       <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="43">
         <v>23248944.510000002</v>
       </c>
     </row>
@@ -10980,7 +10938,7 @@
       <c r="D18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="43">
         <v>15211926.77</v>
       </c>
     </row>
@@ -11012,7 +10970,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="46">
+      <c r="E21" s="43">
         <v>503852793</v>
       </c>
     </row>
@@ -11023,7 +10981,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="46">
+      <c r="E22" s="43">
         <v>4323157.3</v>
       </c>
     </row>
@@ -11043,7 +11001,7 @@
       <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="43">
         <v>441413251.94</v>
       </c>
     </row>
@@ -11054,7 +11012,7 @@
       <c r="D25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="35">
         <v>0</v>
       </c>
     </row>
@@ -11065,7 +11023,7 @@
       <c r="D26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="35">
         <v>0</v>
       </c>
     </row>
@@ -11118,7 +11076,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="45">
+      <c r="E31" s="42">
         <v>0</v>
       </c>
     </row>
@@ -11228,7 +11186,7 @@
       <c r="D42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="43">
         <v>287630937.01999998</v>
       </c>
       <c r="F42" s="7"/>
@@ -11240,7 +11198,7 @@
       <c r="D43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="46">
+      <c r="E43" s="43">
         <v>31950083.239999998</v>
       </c>
     </row>
@@ -11251,7 +11209,7 @@
       <c r="D44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="43">
         <v>8869619.2300000004</v>
       </c>
     </row>
@@ -11271,7 +11229,7 @@
       <c r="D46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="43">
         <v>121000</v>
       </c>
     </row>
@@ -11282,7 +11240,7 @@
       <c r="D47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="43">
         <v>18605545</v>
       </c>
     </row>
@@ -11293,7 +11251,7 @@
       <c r="D48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="46">
+      <c r="E48" s="43">
         <v>14000</v>
       </c>
     </row>
@@ -11313,7 +11271,7 @@
       <c r="D50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="43">
         <v>35539094</v>
       </c>
     </row>
@@ -11324,7 +11282,7 @@
       <c r="D51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="46">
+      <c r="E51" s="43">
         <v>1323100</v>
       </c>
     </row>
@@ -11335,7 +11293,7 @@
       <c r="D52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="46">
+      <c r="E52" s="43">
         <v>1469938.9</v>
       </c>
     </row>
@@ -11355,7 +11313,7 @@
       <c r="D54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="46">
+      <c r="E54" s="43">
         <v>1920736.6</v>
       </c>
     </row>
@@ -11366,7 +11324,7 @@
       <c r="D55" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="46">
+      <c r="E55" s="43">
         <v>323285.25</v>
       </c>
     </row>
@@ -11377,7 +11335,7 @@
       <c r="D56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="46">
+      <c r="E56" s="43">
         <v>274900</v>
       </c>
     </row>
@@ -11397,7 +11355,7 @@
       <c r="D58" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="46">
+      <c r="E58" s="43">
         <v>18828417.199999999</v>
       </c>
     </row>
@@ -11408,7 +11366,7 @@
       <c r="D59" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="46">
+      <c r="E59" s="43">
         <v>443142.46</v>
       </c>
     </row>
@@ -11419,7 +11377,7 @@
       <c r="D60" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="46">
+      <c r="E60" s="43">
         <v>0</v>
       </c>
     </row>
@@ -11439,7 +11397,7 @@
       <c r="D62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="46">
+      <c r="E62" s="43">
         <v>20667603.600000001</v>
       </c>
     </row>
@@ -11450,7 +11408,7 @@
       <c r="D63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="46">
+      <c r="E63" s="43">
         <v>2358000.04</v>
       </c>
     </row>
@@ -11461,7 +11419,7 @@
       <c r="D64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="46">
+      <c r="E64" s="43">
         <v>1803640</v>
       </c>
     </row>
@@ -11481,7 +11439,7 @@
       <c r="D66" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="46">
+      <c r="E66" s="43">
         <v>30619545.32</v>
       </c>
     </row>
@@ -11492,7 +11450,7 @@
       <c r="D67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="46">
+      <c r="E67" s="43">
         <v>6648840.25</v>
       </c>
     </row>
@@ -11503,7 +11461,7 @@
       <c r="D68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="46">
+      <c r="E68" s="43">
         <v>337644.4</v>
       </c>
     </row>
@@ -11534,7 +11492,7 @@
       <c r="D71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="38">
+      <c r="E71" s="35">
         <v>0</v>
       </c>
     </row>
@@ -11545,7 +11503,7 @@
       <c r="D72" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="42">
+      <c r="E72" s="39">
         <v>0</v>
       </c>
     </row>
@@ -11576,7 +11534,7 @@
       <c r="D75" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="46">
+      <c r="E75" s="43">
         <v>691059.9</v>
       </c>
     </row>
@@ -11587,7 +11545,7 @@
       <c r="D76" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="46">
+      <c r="E76" s="43">
         <v>11424764.85</v>
       </c>
     </row>
@@ -11606,7 +11564,7 @@
       <c r="D78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="46">
+      <c r="E78" s="43">
         <v>22067314.27</v>
       </c>
       <c r="G78" s="19"/>
@@ -11618,7 +11576,7 @@
       <c r="D79" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="46">
+      <c r="E79" s="43">
         <v>9443199.0999999996</v>
       </c>
       <c r="G79" s="19"/>
@@ -11630,8 +11588,8 @@
         <v>19</v>
       </c>
       <c r="D80" s="6"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
@@ -11640,7 +11598,7 @@
       <c r="D81" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="42">
+      <c r="E81" s="39">
         <v>0</v>
       </c>
     </row>
@@ -11651,7 +11609,7 @@
       <c r="D82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="42">
+      <c r="E82" s="39">
         <v>0</v>
       </c>
     </row>
@@ -11671,7 +11629,7 @@
       <c r="D84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="38">
+      <c r="E84" s="35">
         <v>0</v>
       </c>
     </row>
@@ -11682,10 +11640,10 @@
       <c r="D85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="38">
-        <v>0</v>
-      </c>
-      <c r="G85" s="48"/>
+      <c r="E85" s="35">
+        <v>0</v>
+      </c>
+      <c r="G85" s="45"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
@@ -11695,7 +11653,7 @@
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="8"/>
-      <c r="G86" s="48"/>
+      <c r="G86" s="45"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
@@ -11704,10 +11662,10 @@
       <c r="D87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="46">
+      <c r="E87" s="43">
         <v>2398925.6</v>
       </c>
-      <c r="G87" s="48"/>
+      <c r="G87" s="45"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
@@ -11719,7 +11677,7 @@
       <c r="E88">
         <v>775935</v>
       </c>
-      <c r="F88" s="46"/>
+      <c r="F88" s="43"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
@@ -11728,8 +11686,8 @@
         <v>16</v>
       </c>
       <c r="D89" s="6"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
@@ -11738,10 +11696,10 @@
       <c r="D90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="47">
+      <c r="E90" s="44">
         <v>9325032.6899999995</v>
       </c>
-      <c r="F90" s="46"/>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
@@ -11750,7 +11708,7 @@
       <c r="D91" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="47">
+      <c r="E91" s="44">
         <v>295583100.63999999</v>
       </c>
     </row>
@@ -11761,7 +11719,7 @@
       <c r="D92" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="47">
+      <c r="E92" s="44">
         <v>207067560.00999999</v>
       </c>
     </row>
@@ -11770,7 +11728,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="6"/>
-      <c r="E93" s="46">
+      <c r="E93" s="43">
         <f>SUM(E41:E92)</f>
         <v>1028525964.5699999</v>
       </c>
@@ -11802,7 +11760,7 @@
       <c r="D96" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="46">
+      <c r="E96" s="43">
         <v>93895577.370000005</v>
       </c>
       <c r="F96" s="13">
@@ -11851,7 +11809,7 @@
       <c r="D100" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="45">
+      <c r="E100" s="42">
         <v>0</v>
       </c>
     </row>
@@ -11904,7 +11862,7 @@
       <c r="D106" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="45">
+      <c r="E106" s="42">
         <v>0</v>
       </c>
       <c r="F106" s="7"/>
@@ -11922,7 +11880,7 @@
       <c r="D108" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="46">
+      <c r="E108" s="43">
         <v>3369083.72</v>
       </c>
     </row>
@@ -11942,7 +11900,7 @@
       <c r="D110" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="45">
+      <c r="E110" s="42">
         <v>0</v>
       </c>
     </row>
@@ -11981,11 +11939,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90685D36-23CA-4D7E-ABC8-7FC1A4AD814A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90685D36-23CA-4D7E-ABC8-7FC1A4AD814A}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11997,83 +11955,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -12108,10 +12066,10 @@
       <c r="D11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="50">
-        <v>72009.899999999994</v>
-      </c>
-      <c r="F11" s="38"/>
+      <c r="E11" s="47">
+        <v>72009000.900000006</v>
+      </c>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -12120,10 +12078,10 @@
       <c r="D12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="50">
-        <v>396640.4</v>
-      </c>
-      <c r="F12" s="38"/>
+      <c r="E12" s="47">
+        <v>396640000.39999998</v>
+      </c>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -12132,8 +12090,8 @@
       <c r="D13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="46">
-        <v>5131</v>
+      <c r="E13" s="43">
+        <v>5131000</v>
       </c>
       <c r="F13" s="7"/>
     </row>
@@ -12146,7 +12104,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="17">
         <f>SUM(E11:E13)</f>
-        <v>473781.30000000005</v>
+        <v>473780001.29999995</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -12165,8 +12123,8 @@
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="50">
-        <v>30200.400000000001</v>
+      <c r="E16" s="47">
+        <v>30200000.399999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12176,8 +12134,8 @@
       <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="50">
-        <v>26835.3</v>
+      <c r="E17" s="47">
+        <v>26835000.300000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12187,7 +12145,7 @@
       <c r="D18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="48" t="s">
         <v>69</v>
       </c>
     </row>
@@ -12200,7 +12158,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="17">
         <f>SUM(E16:E18)</f>
-        <v>57035.7</v>
+        <v>57035000.700000003</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12219,8 +12177,8 @@
         <v>46</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="50">
-        <v>450444.6</v>
+      <c r="E21" s="47">
+        <v>450444000.60000002</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12230,8 +12188,8 @@
         <v>45</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="50">
-        <v>4047.7</v>
+      <c r="E22" s="47">
+        <v>4047000.7</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12250,8 +12208,8 @@
       <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="50">
-        <v>5917.3</v>
+      <c r="E24" s="47">
+        <v>5917000.2999999998</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12261,7 +12219,7 @@
       <c r="D25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="35">
         <v>0</v>
       </c>
     </row>
@@ -12272,7 +12230,7 @@
       <c r="D26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="35">
         <v>0</v>
       </c>
     </row>
@@ -12325,7 +12283,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="45">
+      <c r="E31" s="42">
         <v>0</v>
       </c>
     </row>
@@ -12345,8 +12303,8 @@
       <c r="D33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="50">
-        <v>119.3</v>
+      <c r="E33" s="47">
+        <v>119000.3</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -12356,8 +12314,8 @@
       <c r="D34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="50">
-        <v>67.900000000000006</v>
+      <c r="E34" s="47">
+        <v>67000.899999999994</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -12367,8 +12325,8 @@
       <c r="D35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="50">
-        <v>3554.2</v>
+      <c r="E35" s="47">
+        <v>3554000.2</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -12378,8 +12336,8 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="50">
-        <v>1525.3</v>
+      <c r="E36" s="47">
+        <v>1525000.3</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -12391,7 +12349,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="17">
         <f>SUM(E14,E19,E21:E36)</f>
-        <v>996493.3</v>
+        <v>996488005.29999983</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -12428,15 +12386,15 @@
       <c r="D41" s="6"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="51">
-        <v>647696.27760999999</v>
+      <c r="E42" s="73">
+        <v>481608000.64793003</v>
       </c>
       <c r="F42" s="7"/>
     </row>
@@ -12447,7 +12405,7 @@
       <c r="D43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="50"/>
+      <c r="E43" s="47"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
@@ -12456,7 +12414,7 @@
       <c r="D44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="50"/>
+      <c r="E44" s="47"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -12474,7 +12432,7 @@
       <c r="D46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="50">
+      <c r="E46" s="47">
         <v>0</v>
       </c>
     </row>
@@ -12485,7 +12443,7 @@
       <c r="D47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="50">
+      <c r="E47" s="47">
         <v>0</v>
       </c>
     </row>
@@ -12496,7 +12454,7 @@
       <c r="D48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="50">
+      <c r="E48" s="47">
         <v>0</v>
       </c>
     </row>
@@ -12516,8 +12474,8 @@
       <c r="D50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="50">
-        <v>0</v>
+      <c r="E50" s="47">
+        <v>33123000.210760001</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12527,8 +12485,8 @@
       <c r="D51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="50">
-        <v>0</v>
+      <c r="E51" s="47">
+        <v>37627000.897150002</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12538,8 +12496,8 @@
       <c r="D52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="50">
-        <v>0</v>
+      <c r="E52" s="47">
+        <v>622000.45285</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12558,7 +12516,7 @@
       <c r="D54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="50">
+      <c r="E54" s="47">
         <v>0</v>
       </c>
     </row>
@@ -12569,7 +12527,7 @@
       <c r="D55" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="50">
+      <c r="E55" s="47">
         <v>0</v>
       </c>
     </row>
@@ -12580,7 +12538,7 @@
       <c r="D56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="50">
+      <c r="E56" s="47">
         <v>0</v>
       </c>
     </row>
@@ -12602,7 +12560,7 @@
       <c r="D58" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="50">
+      <c r="E58" s="47">
         <v>0</v>
       </c>
     </row>
@@ -12613,8 +12571,8 @@
       <c r="D59" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="50">
-        <v>0</v>
+      <c r="E59" s="47">
+        <v>5054276.09</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12624,7 +12582,7 @@
       <c r="D60" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="47">
         <v>0</v>
       </c>
     </row>
@@ -12646,7 +12604,7 @@
       <c r="D62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="50">
+      <c r="E62" s="47">
         <v>0</v>
       </c>
     </row>
@@ -12657,8 +12615,8 @@
       <c r="D63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="50">
-        <v>0</v>
+      <c r="E63" s="73">
+        <v>24374942.940000001</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12668,7 +12626,7 @@
       <c r="D64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="50">
+      <c r="E64" s="47">
         <v>0</v>
       </c>
     </row>
@@ -12690,7 +12648,7 @@
       <c r="D66" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="50">
+      <c r="E66" s="47">
         <v>0</v>
       </c>
     </row>
@@ -12701,8 +12659,8 @@
       <c r="D67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="50">
-        <v>0</v>
+      <c r="E67" s="73">
+        <v>50199294.420000002</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -12712,7 +12670,7 @@
       <c r="D68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="50">
+      <c r="E68" s="47">
         <v>0</v>
       </c>
     </row>
@@ -12734,7 +12692,7 @@
       <c r="D70" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="50">
+      <c r="E70" s="47">
         <v>0</v>
       </c>
     </row>
@@ -12745,7 +12703,7 @@
       <c r="D71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="50">
+      <c r="E71" s="47">
         <v>0</v>
       </c>
     </row>
@@ -12756,7 +12714,7 @@
       <c r="D72" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="50">
+      <c r="E72" s="47">
         <v>0</v>
       </c>
     </row>
@@ -12787,7 +12745,7 @@
       <c r="D75" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="46">
+      <c r="E75" s="43">
         <v>0</v>
       </c>
     </row>
@@ -12798,7 +12756,7 @@
       <c r="D76" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="46">
+      <c r="E76" s="43">
         <v>0</v>
       </c>
     </row>
@@ -12817,7 +12775,7 @@
       <c r="D78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="46">
+      <c r="E78" s="43">
         <v>0</v>
       </c>
       <c r="G78" s="19"/>
@@ -12829,7 +12787,7 @@
       <c r="D79" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="46">
+      <c r="E79" s="43">
         <v>0</v>
       </c>
       <c r="G79" s="19"/>
@@ -12841,8 +12799,8 @@
         <v>19</v>
       </c>
       <c r="D80" s="6"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
@@ -12851,7 +12809,7 @@
       <c r="D81" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="50">
+      <c r="E81" s="47">
         <v>0</v>
       </c>
     </row>
@@ -12862,7 +12820,7 @@
       <c r="D82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="50">
+      <c r="E82" s="47">
         <v>0</v>
       </c>
     </row>
@@ -12882,7 +12840,7 @@
       <c r="D84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="38">
+      <c r="E84" s="35">
         <v>0</v>
       </c>
     </row>
@@ -12893,10 +12851,10 @@
       <c r="D85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="38">
-        <v>0</v>
-      </c>
-      <c r="G85" s="48"/>
+      <c r="E85" s="35">
+        <v>0</v>
+      </c>
+      <c r="G85" s="45"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
@@ -12906,7 +12864,7 @@
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="8"/>
-      <c r="G86" s="48"/>
+      <c r="G86" s="45"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
@@ -12915,10 +12873,10 @@
       <c r="D87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="46">
-        <v>0</v>
-      </c>
-      <c r="G87" s="48"/>
+      <c r="E87" s="43">
+        <v>0</v>
+      </c>
+      <c r="G87" s="45"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
@@ -12930,7 +12888,7 @@
       <c r="E88">
         <v>0</v>
       </c>
-      <c r="F88" s="46"/>
+      <c r="F88" s="43"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
@@ -12939,8 +12897,8 @@
         <v>16</v>
       </c>
       <c r="D89" s="6"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
@@ -12949,10 +12907,10 @@
       <c r="D90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="50">
-        <v>0</v>
-      </c>
-      <c r="F90" s="46"/>
+      <c r="E90" s="47">
+        <v>0</v>
+      </c>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
@@ -12961,8 +12919,8 @@
       <c r="D91" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="50">
-        <v>0</v>
+      <c r="E91" s="73">
+        <v>15085555.470000001</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -12972,16 +12930,16 @@
       <c r="D92" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="50"/>
+      <c r="E92" s="47"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="6"/>
-      <c r="E93" s="46">
+      <c r="E93" s="43">
         <f>SUM(E41:E92)</f>
-        <v>647696.27760999999</v>
+        <v>647694071.12869012</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -13011,7 +12969,7 @@
       <c r="D96" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="46">
+      <c r="E96" s="43">
         <v>0</v>
       </c>
       <c r="F96" s="13">
@@ -13060,7 +13018,7 @@
       <c r="D100" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="45">
+      <c r="E100" s="42">
         <v>0</v>
       </c>
     </row>
@@ -13113,7 +13071,7 @@
       <c r="D106" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="45">
+      <c r="E106" s="42">
         <v>0</v>
       </c>
       <c r="F106" s="7"/>
@@ -13131,7 +13089,7 @@
       <c r="D108" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="46">
+      <c r="E108" s="43">
         <v>0</v>
       </c>
     </row>
@@ -13151,7 +13109,7 @@
       <c r="D110" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="45">
+      <c r="E110" s="42">
         <v>0</v>
       </c>
     </row>
@@ -13173,7 +13131,7 @@
       <c r="D112" s="2"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
-        <v>647696.27760999999</v>
+        <v>647694071.12869012</v>
       </c>
     </row>
   </sheetData>
@@ -13186,7 +13144,6 @@
     <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13194,8 +13151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF404F6-AB8D-42E0-A039-DCD55A15DB1B}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13207,83 +13164,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -13318,10 +13275,10 @@
       <c r="D11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="55">
-        <v>52980</v>
-      </c>
-      <c r="F11" s="38"/>
+      <c r="E11" s="51">
+        <v>52980000</v>
+      </c>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -13330,10 +13287,10 @@
       <c r="D12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="54">
-        <v>140840</v>
-      </c>
-      <c r="F12" s="38"/>
+      <c r="E12" s="50">
+        <v>140840000</v>
+      </c>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -13342,8 +13299,8 @@
       <c r="D13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="54">
-        <v>14759</v>
+      <c r="E13" s="50">
+        <v>14759000</v>
       </c>
       <c r="F13" s="7"/>
     </row>
@@ -13356,7 +13313,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="17">
         <f>SUM(E11:E13)</f>
-        <v>208579</v>
+        <v>208579000</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13375,8 +13332,8 @@
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="55">
-        <v>44062</v>
+      <c r="E16" s="51">
+        <v>44062000</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13386,8 +13343,8 @@
       <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="54">
-        <v>338686</v>
+      <c r="E17" s="50">
+        <v>338686000</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -13397,7 +13354,7 @@
       <c r="D18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="48" t="s">
         <v>69</v>
       </c>
     </row>
@@ -13410,7 +13367,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="17">
         <f>SUM(E16:E18)</f>
-        <v>382748</v>
+        <v>382748000</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13429,8 +13386,8 @@
         <v>46</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="55">
-        <v>587989</v>
+      <c r="E21" s="51">
+        <v>587989000</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13440,8 +13397,8 @@
         <v>45</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="54">
-        <v>15539</v>
+      <c r="E22" s="50">
+        <v>15539000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -13451,8 +13408,8 @@
         <v>44</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="53">
-        <v>62665</v>
+      <c r="E23" s="49">
+        <v>62665000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -13462,7 +13419,7 @@
       <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="47">
         <v>0</v>
       </c>
     </row>
@@ -13473,7 +13430,7 @@
       <c r="D25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="35">
         <v>0</v>
       </c>
     </row>
@@ -13484,7 +13441,7 @@
       <c r="D26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="35">
         <v>0</v>
       </c>
     </row>
@@ -13526,8 +13483,8 @@
       <c r="D30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="57">
-        <v>22</v>
+      <c r="E30" s="53">
+        <v>22000</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -13537,7 +13494,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="45">
+      <c r="E31" s="42">
         <v>0</v>
       </c>
     </row>
@@ -13557,7 +13514,7 @@
       <c r="D33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="50">
+      <c r="E33" s="47">
         <v>0</v>
       </c>
     </row>
@@ -13568,7 +13525,7 @@
       <c r="D34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="50">
+      <c r="E34" s="47">
         <v>0</v>
       </c>
     </row>
@@ -13579,7 +13536,7 @@
       <c r="D35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="47">
         <v>0</v>
       </c>
     </row>
@@ -13590,8 +13547,8 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="53">
-        <v>283083</v>
+      <c r="E36" s="49">
+        <v>283083000</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -13603,7 +13560,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="17">
         <f>SUM(E14,E19,E21:E36)</f>
-        <v>1540625</v>
+        <v>1540625000</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -13647,8 +13604,8 @@
       <c r="D42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="55">
-        <v>212379</v>
+      <c r="E42" s="51">
+        <v>212379000</v>
       </c>
       <c r="F42" s="7"/>
     </row>
@@ -13659,8 +13616,8 @@
       <c r="D43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="54">
-        <v>188188</v>
+      <c r="E43" s="50">
+        <v>188188000</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13670,8 +13627,8 @@
       <c r="D44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="54">
-        <v>194317</v>
+      <c r="E44" s="50">
+        <v>194317000</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13690,8 +13647,8 @@
       <c r="D46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="56">
-        <v>288</v>
+      <c r="E46" s="52">
+        <v>288000</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13701,8 +13658,8 @@
       <c r="D47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="54">
-        <v>20884</v>
+      <c r="E47" s="50">
+        <v>20884000</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13712,8 +13669,8 @@
       <c r="D48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="54">
-        <v>6548</v>
+      <c r="E48" s="50">
+        <v>6548000</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13732,8 +13689,8 @@
       <c r="D50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="55">
-        <v>41477</v>
+      <c r="E50" s="51">
+        <v>41477000</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13743,8 +13700,8 @@
       <c r="D51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="54">
-        <v>5585</v>
+      <c r="E51" s="50">
+        <v>5585000</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -13754,7 +13711,7 @@
       <c r="D52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="50">
+      <c r="E52" s="47">
         <v>0</v>
       </c>
     </row>
@@ -13774,7 +13731,7 @@
       <c r="D54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="50">
+      <c r="E54" s="47">
         <v>0</v>
       </c>
     </row>
@@ -13785,7 +13742,7 @@
       <c r="D55" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="50">
+      <c r="E55" s="47">
         <v>0</v>
       </c>
     </row>
@@ -13796,7 +13753,7 @@
       <c r="D56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="50">
+      <c r="E56" s="47">
         <v>0</v>
       </c>
     </row>
@@ -13818,8 +13775,8 @@
       <c r="D58" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="55">
-        <v>29396</v>
+      <c r="E58" s="51">
+        <v>29396000</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13829,8 +13786,8 @@
       <c r="D59" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="54">
-        <v>23050</v>
+      <c r="E59" s="50">
+        <v>23050000</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -13840,7 +13797,7 @@
       <c r="D60" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="47">
         <v>0</v>
       </c>
     </row>
@@ -13862,8 +13819,8 @@
       <c r="D62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="55">
-        <v>13672</v>
+      <c r="E62" s="51">
+        <v>13672000</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13873,8 +13830,8 @@
       <c r="D63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="54">
-        <v>15651</v>
+      <c r="E63" s="50">
+        <v>15651000</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -13884,7 +13841,7 @@
       <c r="D64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="50">
+      <c r="E64" s="47">
         <v>0</v>
       </c>
     </row>
@@ -13904,8 +13861,8 @@
       <c r="D66" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="55">
-        <v>147644</v>
+      <c r="E66" s="51">
+        <v>147644000</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13915,8 +13872,8 @@
       <c r="D67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="54">
-        <v>229484</v>
+      <c r="E67" s="50">
+        <v>229484000</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13926,8 +13883,8 @@
       <c r="D68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="54">
-        <v>10414</v>
+      <c r="E68" s="50">
+        <v>10414000</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13948,7 +13905,7 @@
       <c r="D70" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="50">
+      <c r="E70" s="47">
         <v>0</v>
       </c>
     </row>
@@ -13959,7 +13916,7 @@
       <c r="D71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="50">
+      <c r="E71" s="47">
         <v>0</v>
       </c>
     </row>
@@ -13970,7 +13927,7 @@
       <c r="D72" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="50">
+      <c r="E72" s="47">
         <v>0</v>
       </c>
     </row>
@@ -14001,8 +13958,8 @@
       <c r="D75" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="55">
-        <v>103308</v>
+      <c r="E75" s="51">
+        <v>103308000</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14012,8 +13969,8 @@
       <c r="D76" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="54">
-        <v>191096</v>
+      <c r="E76" s="50">
+        <v>191096000</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14031,8 +13988,8 @@
       <c r="D78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="55">
-        <v>14049</v>
+      <c r="E78" s="51">
+        <v>14049000</v>
       </c>
       <c r="G78" s="19"/>
     </row>
@@ -14043,8 +14000,8 @@
       <c r="D79" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="54">
-        <v>6343</v>
+      <c r="E79" s="50">
+        <v>6343000</v>
       </c>
       <c r="G79" s="19"/>
     </row>
@@ -14055,8 +14012,8 @@
         <v>19</v>
       </c>
       <c r="D80" s="6"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
@@ -14065,7 +14022,7 @@
       <c r="D81" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="50">
+      <c r="E81" s="47">
         <v>0</v>
       </c>
     </row>
@@ -14076,7 +14033,7 @@
       <c r="D82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="50">
+      <c r="E82" s="47">
         <v>0</v>
       </c>
     </row>
@@ -14087,8 +14044,8 @@
         <v>18</v>
       </c>
       <c r="D83" s="6"/>
-      <c r="E83" s="53">
-        <v>29927</v>
+      <c r="E83" s="49">
+        <v>29927000</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -14098,7 +14055,7 @@
       <c r="D84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="38">
+      <c r="E84" s="35">
         <v>0</v>
       </c>
     </row>
@@ -14109,10 +14066,10 @@
       <c r="D85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="38">
-        <v>0</v>
-      </c>
-      <c r="G85" s="48"/>
+      <c r="E85" s="35">
+        <v>0</v>
+      </c>
+      <c r="G85" s="45"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
@@ -14122,7 +14079,7 @@
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="8"/>
-      <c r="G86" s="48"/>
+      <c r="G86" s="45"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
@@ -14131,10 +14088,10 @@
       <c r="D87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="46">
-        <v>0</v>
-      </c>
-      <c r="G87" s="48"/>
+      <c r="E87" s="43">
+        <v>0</v>
+      </c>
+      <c r="G87" s="45"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
@@ -14146,7 +14103,7 @@
       <c r="E88">
         <v>0</v>
       </c>
-      <c r="F88" s="46"/>
+      <c r="F88" s="43"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
@@ -14155,8 +14112,8 @@
         <v>16</v>
       </c>
       <c r="D89" s="6"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
@@ -14165,10 +14122,10 @@
       <c r="D90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="50">
-        <v>0</v>
-      </c>
-      <c r="F90" s="46"/>
+      <c r="E90" s="47">
+        <v>0</v>
+      </c>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
@@ -14177,7 +14134,7 @@
       <c r="D91" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="50">
+      <c r="E91" s="47">
         <v>0</v>
       </c>
     </row>
@@ -14188,16 +14145,16 @@
       <c r="D92" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="50"/>
+      <c r="E92" s="47"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="6"/>
-      <c r="E93" s="46">
+      <c r="E93" s="43">
         <f>SUM(E41:E92)</f>
-        <v>1483700</v>
+        <v>1483700000</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -14227,7 +14184,7 @@
       <c r="D96" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="46">
+      <c r="E96" s="43">
         <v>0</v>
       </c>
       <c r="F96" s="13">
@@ -14276,7 +14233,7 @@
       <c r="D100" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="45">
+      <c r="E100" s="42">
         <v>0</v>
       </c>
     </row>
@@ -14329,7 +14286,7 @@
       <c r="D106" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="45">
+      <c r="E106" s="42">
         <v>0</v>
       </c>
       <c r="F106" s="7"/>
@@ -14347,7 +14304,7 @@
       <c r="D108" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="46">
+      <c r="E108" s="43">
         <v>0</v>
       </c>
     </row>
@@ -14367,7 +14324,7 @@
       <c r="D110" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="45">
+      <c r="E110" s="42">
         <v>0</v>
       </c>
     </row>
@@ -14389,7 +14346,7 @@
       <c r="D112" s="2"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
-        <v>1483700</v>
+        <v>1483700000</v>
       </c>
     </row>
   </sheetData>
@@ -14411,8 +14368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437FC270-DB6C-4887-9A6D-09B453E66887}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14424,83 +14381,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -14535,10 +14492,10 @@
       <c r="D11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="54">
         <v>5366445.4400000004</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -14547,10 +14504,10 @@
       <c r="D12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="54">
         <v>3570588.6</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -14559,7 +14516,7 @@
       <c r="D13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="54">
         <v>1485455.86</v>
       </c>
       <c r="F13" s="7"/>
@@ -14592,7 +14549,7 @@
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="54">
         <v>2240127.54</v>
       </c>
     </row>
@@ -14603,7 +14560,7 @@
       <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="54">
         <v>3066900.39</v>
       </c>
     </row>
@@ -14614,7 +14571,7 @@
       <c r="D18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="54">
         <v>82136</v>
       </c>
     </row>
@@ -14646,7 +14603,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="58">
+      <c r="E21" s="54">
         <v>281072371</v>
       </c>
     </row>
@@ -14657,7 +14614,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="59">
+      <c r="E22" s="55">
         <v>0</v>
       </c>
     </row>
@@ -14668,7 +14625,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="58">
+      <c r="E23" s="54">
         <v>0</v>
       </c>
     </row>
@@ -14679,7 +14636,7 @@
       <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="47">
         <v>0</v>
       </c>
     </row>
@@ -14690,7 +14647,7 @@
       <c r="D25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="35">
         <v>0</v>
       </c>
     </row>
@@ -14701,7 +14658,7 @@
       <c r="D26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="35">
         <v>0</v>
       </c>
     </row>
@@ -14712,7 +14669,7 @@
       <c r="D27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E27" s="54">
         <v>6687</v>
       </c>
     </row>
@@ -14743,7 +14700,7 @@
       <c r="D30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="53">
         <v>22</v>
       </c>
     </row>
@@ -14754,7 +14711,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="45">
+      <c r="E31" s="42">
         <v>0</v>
       </c>
     </row>
@@ -14774,7 +14731,7 @@
       <c r="D33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="50">
+      <c r="E33" s="47">
         <v>0</v>
       </c>
     </row>
@@ -14785,7 +14742,7 @@
       <c r="D34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="50">
+      <c r="E34" s="47">
         <v>0</v>
       </c>
     </row>
@@ -14796,7 +14753,7 @@
       <c r="D35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="47">
         <v>0</v>
       </c>
     </row>
@@ -14807,7 +14764,7 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="53">
+      <c r="E36" s="49">
         <v>0</v>
       </c>
     </row>
@@ -14864,7 +14821,7 @@
       <c r="D42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="58">
+      <c r="E42" s="54">
         <v>73761419.030000001</v>
       </c>
       <c r="F42" s="7"/>
@@ -14876,7 +14833,7 @@
       <c r="D43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="58">
+      <c r="E43" s="54">
         <v>24964229.550000001</v>
       </c>
     </row>
@@ -14887,7 +14844,7 @@
       <c r="D44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="58">
+      <c r="E44" s="54">
         <v>2117189.15</v>
       </c>
     </row>
@@ -14907,7 +14864,7 @@
       <c r="D46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="60">
+      <c r="E46" s="56">
         <v>0</v>
       </c>
     </row>
@@ -14918,7 +14875,7 @@
       <c r="D47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="59">
+      <c r="E47" s="55">
         <v>0</v>
       </c>
     </row>
@@ -14929,7 +14886,7 @@
       <c r="D48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="59">
+      <c r="E48" s="55">
         <v>0</v>
       </c>
     </row>
@@ -14949,7 +14906,7 @@
       <c r="D50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="58">
+      <c r="E50" s="54">
         <v>15603132.970000001</v>
       </c>
     </row>
@@ -14960,7 +14917,7 @@
       <c r="D51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="58">
+      <c r="E51" s="54">
         <v>2588589.85</v>
       </c>
     </row>
@@ -14971,7 +14928,7 @@
       <c r="D52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="58">
+      <c r="E52" s="54">
         <v>138900</v>
       </c>
     </row>
@@ -14991,7 +14948,7 @@
       <c r="D54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="58">
+      <c r="E54" s="54">
         <v>510302.33</v>
       </c>
     </row>
@@ -15002,7 +14959,7 @@
       <c r="D55" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="58">
+      <c r="E55" s="54">
         <v>189768.77</v>
       </c>
     </row>
@@ -15033,7 +14990,7 @@
       <c r="D58" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="59">
+      <c r="E58" s="55">
         <v>0</v>
       </c>
     </row>
@@ -15044,7 +15001,7 @@
       <c r="D59" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="59">
+      <c r="E59" s="55">
         <v>0</v>
       </c>
     </row>
@@ -15055,7 +15012,7 @@
       <c r="D60" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="47">
         <v>0</v>
       </c>
     </row>
@@ -15075,7 +15032,7 @@
       <c r="D62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="58">
+      <c r="E62" s="54">
         <v>8002062.6100000003</v>
       </c>
     </row>
@@ -15086,7 +15043,7 @@
       <c r="D63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="58">
+      <c r="E63" s="54">
         <v>281147.46000000002</v>
       </c>
     </row>
@@ -15097,7 +15054,7 @@
       <c r="D64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="58">
+      <c r="E64" s="54">
         <v>74460</v>
       </c>
     </row>
@@ -15117,7 +15074,7 @@
       <c r="D66" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="58">
+      <c r="E66" s="54">
         <v>26443598.719999999</v>
       </c>
     </row>
@@ -15128,7 +15085,7 @@
       <c r="D67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="58">
+      <c r="E67" s="54">
         <v>5654084.6200000001</v>
       </c>
     </row>
@@ -15139,7 +15096,7 @@
       <c r="D68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="58">
+      <c r="E68" s="54">
         <v>1481733</v>
       </c>
     </row>
@@ -15167,7 +15124,7 @@
       <c r="D71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="50">
+      <c r="E71" s="47">
         <v>0</v>
       </c>
     </row>
@@ -15178,7 +15135,7 @@
       <c r="D72" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="50">
+      <c r="E72" s="47">
         <v>0</v>
       </c>
     </row>
@@ -15209,7 +15166,7 @@
       <c r="D75" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="58">
+      <c r="E75" s="54">
         <v>609188.51</v>
       </c>
     </row>
@@ -15220,7 +15177,7 @@
       <c r="D76" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="58">
+      <c r="E76" s="54">
         <v>5837949.3600000003</v>
       </c>
     </row>
@@ -15239,7 +15196,7 @@
       <c r="D78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="58">
+      <c r="E78" s="54">
         <v>10961945.74</v>
       </c>
       <c r="G78" s="19"/>
@@ -15251,7 +15208,7 @@
       <c r="D79" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="58">
+      <c r="E79" s="54">
         <v>1145431</v>
       </c>
       <c r="G79" s="19"/>
@@ -15263,8 +15220,8 @@
         <v>19</v>
       </c>
       <c r="D80" s="6"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
@@ -15273,7 +15230,7 @@
       <c r="D81" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="58">
+      <c r="E81" s="54">
         <v>12029059.390000001</v>
       </c>
     </row>
@@ -15284,7 +15241,7 @@
       <c r="D82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="58">
+      <c r="E82" s="54">
         <v>4154562.15</v>
       </c>
     </row>
@@ -15295,7 +15252,7 @@
         <v>18</v>
       </c>
       <c r="D83" s="6"/>
-      <c r="E83" s="53">
+      <c r="E83" s="49">
         <v>0</v>
       </c>
     </row>
@@ -15306,7 +15263,7 @@
       <c r="D84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="38">
+      <c r="E84" s="35">
         <v>0</v>
       </c>
     </row>
@@ -15317,10 +15274,10 @@
       <c r="D85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="38">
-        <v>0</v>
-      </c>
-      <c r="G85" s="48"/>
+      <c r="E85" s="35">
+        <v>0</v>
+      </c>
+      <c r="G85" s="45"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
@@ -15330,7 +15287,7 @@
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="8"/>
-      <c r="G86" s="48"/>
+      <c r="G86" s="45"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
@@ -15339,10 +15296,10 @@
       <c r="D87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="58">
+      <c r="E87" s="54">
         <v>3196121.34</v>
       </c>
-      <c r="G87" s="48"/>
+      <c r="G87" s="45"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
@@ -15354,7 +15311,7 @@
       <c r="E88">
         <v>0</v>
       </c>
-      <c r="F88" s="46"/>
+      <c r="F88" s="43"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
@@ -15363,8 +15320,8 @@
         <v>16</v>
       </c>
       <c r="D89" s="6"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
@@ -15373,10 +15330,10 @@
       <c r="D90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="58">
+      <c r="E90" s="54">
         <v>5173348.6500000004</v>
       </c>
-      <c r="F90" s="46"/>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
@@ -15385,7 +15342,7 @@
       <c r="D91" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="58">
+      <c r="E91" s="54">
         <v>29850386.129999999</v>
       </c>
     </row>
@@ -15396,14 +15353,14 @@
       <c r="D92" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="50"/>
+      <c r="E92" s="47"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="6"/>
-      <c r="E93" s="46">
+      <c r="E93" s="43">
         <f>SUM(E41:E92)</f>
         <v>234768610.33000001</v>
       </c>
@@ -15435,7 +15392,7 @@
       <c r="D96" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="46">
+      <c r="E96" s="43">
         <v>0</v>
       </c>
       <c r="F96" s="13">
@@ -15484,7 +15441,7 @@
       <c r="D100" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="45">
+      <c r="E100" s="42">
         <v>0</v>
       </c>
     </row>
@@ -15537,7 +15494,7 @@
       <c r="D106" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="45">
+      <c r="E106" s="42">
         <v>0</v>
       </c>
       <c r="F106" s="7"/>
@@ -15555,7 +15512,7 @@
       <c r="D108" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="46">
+      <c r="E108" s="43">
         <v>0</v>
       </c>
     </row>
@@ -15575,7 +15532,7 @@
       <c r="D110" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="58">
+      <c r="E110" s="54">
         <v>11558874.75</v>
       </c>
     </row>
@@ -15619,7 +15576,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15631,83 +15588,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -15742,10 +15699,10 @@
       <c r="D11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="60">
         <v>117213675.98999999</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -15754,10 +15711,10 @@
       <c r="D12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="60">
         <v>428798227.07999998</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -15766,7 +15723,7 @@
       <c r="D13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="59">
         <v>12482597.050000001</v>
       </c>
       <c r="F13" s="7"/>
@@ -15799,7 +15756,7 @@
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="60">
         <v>67901150.780000001</v>
       </c>
     </row>
@@ -15810,7 +15767,7 @@
       <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="60">
         <v>35782600.200000003</v>
       </c>
     </row>
@@ -15821,7 +15778,7 @@
       <c r="D18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="59">
         <v>12255885.32</v>
       </c>
     </row>
@@ -15853,7 +15810,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="64">
+      <c r="E21" s="60">
         <v>587145715</v>
       </c>
     </row>
@@ -15864,7 +15821,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="64">
+      <c r="E22" s="60">
         <v>1419311.47</v>
       </c>
     </row>
@@ -15875,7 +15832,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="58">
+      <c r="E23" s="54">
         <v>0</v>
       </c>
     </row>
@@ -15886,7 +15843,7 @@
       <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="47">
         <v>0</v>
       </c>
     </row>
@@ -15897,7 +15854,7 @@
       <c r="D25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="35">
         <v>0</v>
       </c>
     </row>
@@ -15908,7 +15865,7 @@
       <c r="D26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="35">
         <v>0</v>
       </c>
     </row>
@@ -15919,7 +15876,7 @@
       <c r="D27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E27" s="54">
         <v>0</v>
       </c>
     </row>
@@ -15939,7 +15896,7 @@
       <c r="D29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="64">
+      <c r="E29" s="60">
         <v>328000</v>
       </c>
     </row>
@@ -15950,7 +15907,7 @@
       <c r="D30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="53">
         <v>0</v>
       </c>
     </row>
@@ -15961,7 +15918,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="45">
+      <c r="E31" s="42">
         <v>0</v>
       </c>
     </row>
@@ -15981,7 +15938,7 @@
       <c r="D33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="60">
         <v>1161000</v>
       </c>
     </row>
@@ -15992,7 +15949,7 @@
       <c r="D34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="50">
+      <c r="E34" s="47">
         <v>0</v>
       </c>
     </row>
@@ -16003,7 +15960,7 @@
       <c r="D35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="47">
         <v>0</v>
       </c>
     </row>
@@ -16014,7 +15971,7 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="63">
+      <c r="E36" s="59">
         <v>132872717.23999999</v>
       </c>
     </row>
@@ -16071,7 +16028,7 @@
       <c r="D42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="61">
+      <c r="E42" s="57">
         <v>183516789.49000001</v>
       </c>
       <c r="F42" s="7"/>
@@ -16083,7 +16040,7 @@
       <c r="D43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="61">
+      <c r="E43" s="57">
         <v>255416386.22999999</v>
       </c>
     </row>
@@ -16094,7 +16051,7 @@
       <c r="D44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="61">
+      <c r="E44" s="57">
         <v>49043801.379999995</v>
       </c>
     </row>
@@ -16114,7 +16071,7 @@
       <c r="D46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="61">
+      <c r="E46" s="57">
         <v>8971210.8399999999</v>
       </c>
     </row>
@@ -16125,7 +16082,7 @@
       <c r="D47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="61">
+      <c r="E47" s="57">
         <v>71088158</v>
       </c>
     </row>
@@ -16136,7 +16093,7 @@
       <c r="D48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="61">
+      <c r="E48" s="57">
         <v>1694138</v>
       </c>
     </row>
@@ -16156,7 +16113,7 @@
       <c r="D50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="61">
+      <c r="E50" s="57">
         <v>52882450.57</v>
       </c>
     </row>
@@ -16167,7 +16124,7 @@
       <c r="D51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="57">
         <v>47584530.75</v>
       </c>
     </row>
@@ -16178,7 +16135,7 @@
       <c r="D52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="61">
+      <c r="E52" s="57">
         <v>1907365.47</v>
       </c>
     </row>
@@ -16198,7 +16155,7 @@
       <c r="D54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="61">
+      <c r="E54" s="57">
         <v>6061601</v>
       </c>
     </row>
@@ -16209,7 +16166,7 @@
       <c r="D55" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="58">
+      <c r="E55" s="54">
         <v>0</v>
       </c>
     </row>
@@ -16240,7 +16197,7 @@
       <c r="D58" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="59">
+      <c r="E58" s="55">
         <v>0</v>
       </c>
     </row>
@@ -16251,7 +16208,7 @@
       <c r="D59" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="59">
+      <c r="E59" s="55">
         <v>0</v>
       </c>
     </row>
@@ -16262,7 +16219,7 @@
       <c r="D60" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="47">
         <v>0</v>
       </c>
     </row>
@@ -16282,7 +16239,7 @@
       <c r="D62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="61">
+      <c r="E62" s="57">
         <v>26199634.949999999</v>
       </c>
     </row>
@@ -16293,7 +16250,7 @@
       <c r="D63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="61">
+      <c r="E63" s="57">
         <v>107403.27591</v>
       </c>
     </row>
@@ -16304,7 +16261,7 @@
       <c r="D64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="61">
+      <c r="E64" s="57">
         <v>498950</v>
       </c>
     </row>
@@ -16324,7 +16281,7 @@
       <c r="D66" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="61">
+      <c r="E66" s="57">
         <v>40754702.949999996</v>
       </c>
     </row>
@@ -16335,7 +16292,7 @@
       <c r="D67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="61">
+      <c r="E67" s="57">
         <v>90230147.810000002</v>
       </c>
     </row>
@@ -16346,7 +16303,7 @@
       <c r="D68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="61">
+      <c r="E68" s="57">
         <v>25261022.939999998</v>
       </c>
     </row>
@@ -16374,7 +16331,7 @@
       <c r="D71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="50">
+      <c r="E71" s="47">
         <v>0</v>
       </c>
     </row>
@@ -16385,7 +16342,7 @@
       <c r="D72" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="50">
+      <c r="E72" s="47">
         <v>0</v>
       </c>
     </row>
@@ -16416,7 +16373,7 @@
       <c r="D75" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="61">
+      <c r="E75" s="57">
         <v>4875.492733</v>
       </c>
     </row>
@@ -16427,7 +16384,7 @@
       <c r="D76" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="61">
+      <c r="E76" s="57">
         <v>7528433.1330000004</v>
       </c>
     </row>
@@ -16446,7 +16403,7 @@
       <c r="D78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="61">
+      <c r="E78" s="57">
         <v>51241461.730000004</v>
       </c>
       <c r="G78" s="19"/>
@@ -16458,7 +16415,7 @@
       <c r="D79" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="58">
+      <c r="E79" s="54">
         <v>0</v>
       </c>
       <c r="G79" s="19"/>
@@ -16470,8 +16427,8 @@
         <v>19</v>
       </c>
       <c r="D80" s="6"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
@@ -16480,7 +16437,7 @@
       <c r="D81" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="61">
+      <c r="E81" s="57">
         <v>5266450</v>
       </c>
     </row>
@@ -16491,7 +16448,7 @@
       <c r="D82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="62">
+      <c r="E82" s="58">
         <v>98558684.890000001</v>
       </c>
     </row>
@@ -16502,7 +16459,7 @@
         <v>18</v>
       </c>
       <c r="D83" s="6"/>
-      <c r="E83" s="53">
+      <c r="E83" s="49">
         <v>0</v>
       </c>
     </row>
@@ -16513,7 +16470,7 @@
       <c r="D84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="61">
+      <c r="E84" s="57">
         <v>252.94040000000001</v>
       </c>
     </row>
@@ -16524,10 +16481,10 @@
       <c r="D85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="61">
+      <c r="E85" s="57">
         <v>2400</v>
       </c>
-      <c r="G85" s="48"/>
+      <c r="G85" s="45"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
@@ -16537,7 +16494,7 @@
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="8"/>
-      <c r="G86" s="48"/>
+      <c r="G86" s="45"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
@@ -16546,10 +16503,10 @@
       <c r="D87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="61">
+      <c r="E87" s="57">
         <v>15034915.93</v>
       </c>
-      <c r="G87" s="48"/>
+      <c r="G87" s="45"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
@@ -16561,7 +16518,7 @@
       <c r="E88">
         <v>0</v>
       </c>
-      <c r="F88" s="46"/>
+      <c r="F88" s="43"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
@@ -16570,8 +16527,8 @@
         <v>16</v>
       </c>
       <c r="D89" s="6"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
@@ -16580,10 +16537,10 @@
       <c r="D90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="58">
-        <v>0</v>
-      </c>
-      <c r="F90" s="46"/>
+      <c r="E90" s="54">
+        <v>0</v>
+      </c>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
@@ -16592,7 +16549,7 @@
       <c r="D91" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="61">
+      <c r="E91" s="57">
         <v>6534545.4299999997</v>
       </c>
     </row>
@@ -16603,14 +16560,14 @@
       <c r="D92" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="50"/>
+      <c r="E92" s="47"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="6"/>
-      <c r="E93" s="46">
+      <c r="E93" s="43">
         <f>SUM(E41:E92)</f>
         <v>1045390313.2020432</v>
       </c>
@@ -16642,7 +16599,7 @@
       <c r="D96" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="46">
+      <c r="E96" s="43">
         <v>0</v>
       </c>
       <c r="F96" s="13">
@@ -16691,7 +16648,7 @@
       <c r="D100" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="45">
+      <c r="E100" s="42">
         <v>0</v>
       </c>
     </row>
@@ -16744,7 +16701,7 @@
       <c r="D106" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="45">
+      <c r="E106" s="42">
         <v>0</v>
       </c>
       <c r="F106" s="7"/>
@@ -16762,7 +16719,7 @@
       <c r="D108" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="46">
+      <c r="E108" s="43">
         <v>0</v>
       </c>
     </row>
@@ -16782,7 +16739,7 @@
       <c r="D110" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="58">
+      <c r="E110" s="54">
         <v>0</v>
       </c>
     </row>
